--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58329A50-2E61-46E8-ADB5-9A956FA53508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E681F5A-11DC-4C91-8BFD-CCE2D727CC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14865" windowHeight="14340" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Equity</t>
   </si>
@@ -96,13 +96,20 @@
   </si>
   <si>
     <t>MARGIN COUNTER</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +187,14 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -214,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,8 +261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -267,6 +280,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
-  <dimension ref="D9:M25"/>
+  <dimension ref="D4:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,11 +612,14 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="6"/>
   </cols>
   <sheetData>
+    <row r="4" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4" s="23"/>
+    </row>
     <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -633,7 +655,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -645,9 +667,9 @@
       <c r="E12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="13">
-        <f>K23+F16</f>
-        <v>490.22511811999948</v>
+      <c r="F12" s="22">
+        <f>K22+F16</f>
+        <v>450.88006864800093</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -655,15 +677,15 @@
       <c r="J12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="21">
-        <v>9082.34</v>
-      </c>
-      <c r="L12" s="21">
-        <v>9277</v>
+      <c r="K12" s="19">
+        <f>L12*(1+M12)</f>
+        <v>8654.570099999999</v>
+      </c>
+      <c r="L12" s="19">
+        <v>8741.99</v>
       </c>
       <c r="M12" s="8">
-        <f>K12/L12-1</f>
-        <v>-2.0983076425568625E-2</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -671,9 +693,9 @@
       <c r="E13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="22">
         <f>F12-F14</f>
-        <v>402.23511811999947</v>
+        <v>394.95006864800092</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -681,8 +703,8 @@
       <c r="J13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="2">
-        <v>0.32068400000000002</v>
+      <c r="K13" s="21">
+        <v>0.31475999999999998</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="7"/>
@@ -692,10 +714,13 @@
       <c r="E14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="14">
-        <v>87.99</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="F14" s="22">
+        <v>55.93</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14/2</f>
+        <v>27.965</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="10" t="s">
@@ -712,9 +737,9 @@
       <c r="E15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
-        <f>K23</f>
-        <v>59.78511811999951</v>
+      <c r="F15" s="22">
+        <f>K22</f>
+        <v>136.42006864800095</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -733,9 +758,8 @@
       <c r="E16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="14">
-        <f>430.44</f>
-        <v>430.44</v>
+      <c r="F16" s="22">
+        <v>314.45999999999998</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -750,9 +774,9 @@
       <c r="E17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f>F13/F14+1</f>
-        <v>5.5713730892146778</v>
+        <v>8.0615066806365263</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -776,130 +800,119 @@
     </row>
     <row r="19" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>-0.1</v>
       </c>
-      <c r="G20" s="16">
-        <v>9172.2099999999991</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="G20" s="14">
+        <v>8897.86</v>
+      </c>
+      <c r="H20" s="14">
         <f>$K$12</f>
-        <v>9082.34</v>
-      </c>
-      <c r="I20" s="16">
+        <v>8654.570099999999</v>
+      </c>
+      <c r="I20" s="14">
         <f>G20-H20</f>
-        <v>89.869999999998981</v>
-      </c>
-      <c r="J20" s="16">
+        <v>243.28990000000158</v>
+      </c>
+      <c r="J20" s="20">
         <f>$K$13</f>
-        <v>0.32068400000000002</v>
-      </c>
-      <c r="K20" s="18">
+        <v>0.31475999999999998</v>
+      </c>
+      <c r="K20" s="16">
         <f>I20*J20</f>
-        <v>28.819871079999675</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>76.577928924000489</v>
+      </c>
+      <c r="L20" s="16">
+        <v>40.61</v>
+      </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>-0.1</v>
       </c>
-      <c r="G21" s="16">
-        <v>9136.58</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="G21" s="14">
+        <v>8844.69</v>
+      </c>
+      <c r="H21" s="14">
         <f>$K$12</f>
-        <v>9082.34</v>
-      </c>
-      <c r="I21" s="16">
+        <v>8654.570099999999</v>
+      </c>
+      <c r="I21" s="14">
         <f>G21-H21</f>
-        <v>54.239999999999782</v>
-      </c>
-      <c r="J21" s="16">
+        <v>190.11990000000151</v>
+      </c>
+      <c r="J21" s="20">
         <f>$K$13</f>
-        <v>0.32068400000000002</v>
-      </c>
-      <c r="K21" s="18">
+        <v>0.31475999999999998</v>
+      </c>
+      <c r="K21" s="16">
         <f>I21*J21</f>
-        <v>17.39390015999993</v>
+        <v>59.842139724000468</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="E22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="16">
-        <v>-0.1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>9124.66</v>
-      </c>
-      <c r="H22" s="16">
-        <f>$K$12</f>
-        <v>9082.34</v>
-      </c>
-      <c r="I22" s="16">
-        <f>G22-H22</f>
-        <v>42.319999999999709</v>
-      </c>
-      <c r="J22" s="16">
-        <f>$K$13</f>
-        <v>0.32068400000000002</v>
-      </c>
-      <c r="K22" s="18">
-        <f>I22*J22</f>
-        <v>13.571346879999908</v>
+      <c r="E22" s="17"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <f>H21/31.77</f>
+        <v>272.41328611898012</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="5">
+        <f>SUM(K20:K21)</f>
+        <v>136.42006864800095</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="5">
-        <f>SUM(K20:K22)</f>
-        <v>59.78511811999951</v>
-      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="7"/>
     </row>
@@ -915,18 +928,6 @@
       <c r="L24" s="3"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E681F5A-11DC-4C91-8BFD-CCE2D727CC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42900B4E-FC1A-47A4-847C-48D03322B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14865" windowHeight="14340" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t>Equity</t>
   </si>
@@ -95,21 +95,35 @@
     <t>TODAY'S START</t>
   </si>
   <si>
-    <t>MARGIN COUNTER</t>
-  </si>
-  <si>
     <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>ALPER ÜLKÜ</t>
+  </si>
+  <si>
+    <t>RABİA ÇAKMAK</t>
+  </si>
+  <si>
+    <t>HACER İPEK</t>
+  </si>
+  <si>
+    <t>GÖZDE  AZİZOĞLU GÖK</t>
+  </si>
+  <si>
+    <t>&lt;&lt; ERR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +209,26 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +247,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,9 +289,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,7 +308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -271,21 +317,30 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,40 +656,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
-  <dimension ref="D4:M24"/>
+  <dimension ref="D4:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="6"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K4" s="23"/>
-    </row>
-    <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
+    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4" s="20"/>
+    </row>
+    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="23">
+        <v>9462066</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="9" t="s">
-        <v>19</v>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+      <c r="O9" s="23">
+        <v>9672767</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -644,9 +726,19 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="4:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -655,111 +747,207 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="22">
-        <f>K22+F16</f>
-        <v>450.88006864800093</v>
+      <c r="F12" s="27">
+        <f>F15+F16</f>
+        <v>232.13083639999928</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="19">
-        <f>L12*(1+M12)</f>
-        <v>8654.570099999999</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="K12" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="L12" s="16">
         <v>8741.99</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="13" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+      <c r="P12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
+        <f>Q15+Q16</f>
+        <v>166.19547949999929</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="22">
+        <f>K12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="W12" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="X12" s="7">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>394.95006864800092</v>
+        <v>176.07083639999928</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="21">
-        <v>0.31475999999999998</v>
+      <c r="K13" s="18">
+        <v>0.31418000000000001</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>Q12-Q14</f>
+        <v>82.495479499999291</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="24">
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="W13" s="3">
+        <f>W21/T21</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="22">
-        <v>55.93</v>
+      <c r="F14" s="19">
+        <v>56.06</v>
       </c>
       <c r="G14" s="2">
         <f>F14/2</f>
-        <v>27.965</v>
+        <v>28.03</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="6"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>83.7</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="2">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="19">
         <f>K22</f>
-        <v>136.42006864800095</v>
+        <v>-67.869163600000718</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="6"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="19">
+        <f>V20+V21+V22</f>
+        <v>-162.8145205000007</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="22">
-        <v>314.45999999999998</v>
+      <c r="F16" s="19">
+        <v>300</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -767,16 +955,30 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="6"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>329.01</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>8.0615066806365263</v>
+        <v>4.1407569818051959</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -784,9 +986,24 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="6"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="26">
+        <f>Q13/Q14+1</f>
+        <v>1.9856090740740657</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -796,115 +1013,230 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M18" s="6"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>-0.1</v>
       </c>
-      <c r="G20" s="14">
-        <v>8897.86</v>
+      <c r="G20" s="12">
+        <v>8923.82</v>
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>8654.570099999999</v>
-      </c>
-      <c r="I20" s="14">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>243.28990000000158</v>
-      </c>
-      <c r="J20" s="20">
+        <v>-111.05000000000109</v>
+      </c>
+      <c r="J20" s="17">
         <f>$K$13</f>
-        <v>0.31475999999999998</v>
-      </c>
-      <c r="K20" s="16">
+        <v>0.31418000000000001</v>
+      </c>
+      <c r="K20" s="14">
         <f>I20*J20</f>
-        <v>76.577928924000489</v>
-      </c>
-      <c r="L20" s="16">
-        <v>40.61</v>
-      </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-34.889689000000345</v>
+      </c>
+      <c r="L20" s="14">
+        <v>-34.89</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R20" s="12">
+        <v>8921.59</v>
+      </c>
+      <c r="S20" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T20" s="12">
+        <f>R20-S20</f>
+        <v>-113.28000000000065</v>
+      </c>
+      <c r="U20" s="25">
+        <f>$V$13</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="V20" s="14">
+        <f>T20*U20</f>
+        <v>-35.586912000000204</v>
+      </c>
+      <c r="W20" s="14"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>-0.1</v>
       </c>
       <c r="G21" s="14">
-        <v>8844.69</v>
+        <v>8929.9</v>
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>8654.570099999999</v>
-      </c>
-      <c r="I21" s="14">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="I21" s="12">
         <f>G21-H21</f>
-        <v>190.11990000000151</v>
-      </c>
-      <c r="J21" s="20">
+        <v>-104.97000000000116</v>
+      </c>
+      <c r="J21" s="17">
         <f>$K$13</f>
-        <v>0.31475999999999998</v>
-      </c>
-      <c r="K21" s="16">
+        <v>0.31418000000000001</v>
+      </c>
+      <c r="K21" s="14">
         <f>I21*J21</f>
-        <v>59.842139724000468</v>
+        <v>-32.979474600000366</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="6"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R21" s="14">
+        <v>8837.3799999999992</v>
+      </c>
+      <c r="S21" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T21" s="12">
+        <f>R21-S21</f>
+        <v>-197.4900000000016</v>
+      </c>
+      <c r="U21" s="25">
+        <f t="shared" ref="U21:U22" si="0">$V$13</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="V21" s="14">
+        <f>T21*U21</f>
+        <v>-62.041483500000503</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14">
-        <f>H21/31.77</f>
-        <v>272.41328611898012</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="5">
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="14">
         <f>SUM(K20:K21)</f>
-        <v>136.42006864800095</v>
+        <v>-67.869163600000718</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="6"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R22" s="12">
+        <v>8827.3700000000008</v>
+      </c>
+      <c r="S22" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T22" s="14">
+        <f>R22-S22</f>
+        <v>-207.5</v>
+      </c>
+      <c r="U22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="V22" s="14">
+        <f>T22*U22</f>
+        <v>-65.18612499999999</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -914,19 +1246,612 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="25" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D25" s="23">
+        <v>9675887</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="28">
+        <v>3</v>
+      </c>
+      <c r="O25" s="23">
+        <v>9675888</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="6"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <f>F31+F32</f>
+        <v>172.60426179999939</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="L28" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="M28" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="27">
+        <f>Q31+Q32</f>
+        <v>163.93740299999934</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="W28" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="X28" s="7">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19">
+        <f>F28-F30</f>
+        <v>88.664261799999394</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="18">
+        <f>V13</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="6"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="19">
+        <f>Q28-Q30</f>
+        <v>83.767402999999334</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="18">
+        <f>K29</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="W29" s="3"/>
+      <c r="X29" s="6"/>
+    </row>
+    <row r="30" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="19">
+        <v>83.94</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2">
+        <v>100</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="6"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>80.17</v>
+      </c>
+      <c r="R30" s="2">
+        <f>Q30/2</f>
+        <v>40.085000000000001</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V30" s="2">
+        <v>100</v>
+      </c>
+      <c r="W30" s="3"/>
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="19">
+        <f>SUM(K36:K38)-G31</f>
+        <v>-141.85573820000059</v>
+      </c>
+      <c r="G31" s="19">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="6"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="19">
+        <f>SUM(V36:V38)-R31</f>
+        <v>-157.94259700000066</v>
+      </c>
+      <c r="R31" s="19">
+        <v>2.76</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="E32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="19">
+        <v>314.45999999999998</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="6"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>321.88</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="26">
+        <f>F29/F30+1</f>
+        <v>2.0562814129139788</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="6"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="26">
+        <f>Q29/Q30+1</f>
+        <v>2.0448721841087605</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="6"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>8920.14</v>
+      </c>
+      <c r="H36" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="I36" s="12">
+        <f>G36-H36</f>
+        <v>-114.73000000000138</v>
+      </c>
+      <c r="J36" s="17">
+        <f>$K$13</f>
+        <v>0.31418000000000001</v>
+      </c>
+      <c r="K36" s="14">
+        <f>I36*J36</f>
+        <v>-36.045871400000436</v>
+      </c>
+      <c r="L36" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R36" s="14">
+        <v>8921.43</v>
+      </c>
+      <c r="S36" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T36" s="12">
+        <f>R36-S36</f>
+        <v>-113.44000000000051</v>
+      </c>
+      <c r="U36" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="V36" s="14">
+        <f>T36*U36</f>
+        <v>-35.648520000000154</v>
+      </c>
+      <c r="W36" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G37" s="14">
+        <v>8897.86</v>
+      </c>
+      <c r="H37" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="I37" s="12">
+        <f>G37-H37</f>
+        <v>-137.01000000000022</v>
+      </c>
+      <c r="J37" s="17">
+        <f>$K$13</f>
+        <v>0.31418000000000001</v>
+      </c>
+      <c r="K37" s="14">
+        <f>I37*J37</f>
+        <v>-43.045801800000071</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="6"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R37" s="14">
+        <v>8849.77</v>
+      </c>
+      <c r="S37" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T37" s="12">
+        <f>R37-S37</f>
+        <v>-185.10000000000036</v>
+      </c>
+      <c r="U37" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="V37" s="14">
+        <f>T37*U37</f>
+        <v>-58.167675000000109</v>
+      </c>
+      <c r="W37" s="3"/>
+      <c r="X37" s="6"/>
+    </row>
+    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+      <c r="E38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>8844.69</v>
+      </c>
+      <c r="H38" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="I38" s="12">
+        <f>G38-H38</f>
+        <v>-190.18000000000029</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="K38" s="14">
+        <f>I38*J38</f>
+        <v>-59.764065000000087</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="6"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R38" s="12">
+        <v>8839.56</v>
+      </c>
+      <c r="S38" s="14">
+        <f>$K$12</f>
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T38" s="12">
+        <f>R38-S38</f>
+        <v>-195.31000000000131</v>
+      </c>
+      <c r="U38" s="17">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="V38" s="14">
+        <f>T38*U38</f>
+        <v>-61.366402000000406</v>
+      </c>
+      <c r="W38" s="3"/>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="6"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42900B4E-FC1A-47A4-847C-48D03322B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF913FC4-D16A-466B-80AF-3BA7D60322C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="1650" yWindow="465" windowWidth="14565" windowHeight="14760" activeTab="2" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
+    <sheet name="Can Aksoy" sheetId="2" r:id="rId2"/>
+    <sheet name="Rabia Çakmak" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>Equity</t>
   </si>
@@ -111,17 +113,101 @@
   </si>
   <si>
     <t>&lt;&lt; ERR</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>GPG</t>
+  </si>
+  <si>
+    <t>DBH</t>
+  </si>
+  <si>
+    <t>Tutar</t>
+  </si>
+  <si>
+    <t>FİB</t>
+  </si>
+  <si>
+    <t>GTY</t>
+  </si>
+  <si>
+    <t>IRT</t>
+  </si>
+  <si>
+    <t>IVY</t>
+  </si>
+  <si>
+    <t>Alış Fiyatı</t>
+  </si>
+  <si>
+    <t>Bugünkü fiyat</t>
+  </si>
+  <si>
+    <t>Bugünkü Tutar</t>
+  </si>
+  <si>
+    <t>K/Z</t>
+  </si>
+  <si>
+    <t>K/Z %</t>
+  </si>
+  <si>
+    <t>Ağırlık</t>
+  </si>
+  <si>
+    <t>CAN AKSOY</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>FONLAR</t>
+  </si>
+  <si>
+    <t>Alış Tarihi</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>USD/TRY</t>
+  </si>
+  <si>
+    <t>CRM(TL)</t>
+  </si>
+  <si>
+    <t>TOPLAM YATIRIM</t>
+  </si>
+  <si>
+    <t>KOMİSYON (%7)</t>
+  </si>
+  <si>
+    <t>ABD BORSA</t>
+  </si>
+  <si>
+    <t>USDTRY</t>
+  </si>
+  <si>
+    <t>IJV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="10">
+    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;₺&quot;* #,##0.00000_-;\-&quot;₺&quot;* #,##0.00000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-&quot;₺&quot;* #,##0.000000_-;\-&quot;₺&quot;* #,##0.000000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -228,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +351,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -274,12 +372,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,8 +473,8 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -341,9 +482,96 @@
     <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
+    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
     <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -658,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
   <dimension ref="D4:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
@@ -1857,4 +2085,1105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B82FAE-4EF4-4047-8CD2-C2C2EAB6C6F8}">
+  <dimension ref="A4:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13" style="30" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="62">
+        <v>45355</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="68">
+        <f ca="1">K5</f>
+        <v>45360</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="37">
+        <v>31.39</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="36">
+        <v>31.93</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="65">
+        <f ca="1">TODAY()</f>
+        <v>45360</v>
+      </c>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1122316</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.17353399999999999</v>
+      </c>
+      <c r="D10" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E10" s="37">
+        <f>B10*C10</f>
+        <v>194759.98474399999</v>
+      </c>
+      <c r="F10" s="45">
+        <f>E10/$E$17</f>
+        <v>0.5410245403030417</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.17698900000000001</v>
+      </c>
+      <c r="H10" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I10" s="37">
+        <f>B10*G10</f>
+        <v>198637.58652400001</v>
+      </c>
+      <c r="J10" s="37">
+        <f>I10-E10</f>
+        <v>3877.6017800000263</v>
+      </c>
+      <c r="K10" s="46">
+        <f>I10/E10-1</f>
+        <v>1.9909643067064886E-2</v>
+      </c>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="35">
+        <v>480300</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.19988900000000001</v>
+      </c>
+      <c r="D11" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E11" s="37">
+        <f>B11*C11</f>
+        <v>96006.686700000006</v>
+      </c>
+      <c r="F11" s="45">
+        <f>E11/$E$17</f>
+        <v>0.26669735883456852</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0.20144999999999999</v>
+      </c>
+      <c r="H11" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I11" s="37">
+        <f>B11*G11</f>
+        <v>96756.434999999998</v>
+      </c>
+      <c r="J11" s="37">
+        <f>I11-E11</f>
+        <v>749.74829999999201</v>
+      </c>
+      <c r="K11" s="46">
+        <f>I11/E11-1</f>
+        <v>7.8093341804701399E-3</v>
+      </c>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="35">
+        <v>20559</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3.0799789999999998</v>
+      </c>
+      <c r="D12" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E12" s="37">
+        <f>B12*C12</f>
+        <v>63321.288260999994</v>
+      </c>
+      <c r="F12" s="45">
+        <f>E12/$E$17</f>
+        <v>0.17590045982923255</v>
+      </c>
+      <c r="G12" s="36">
+        <v>3.1040049999999999</v>
+      </c>
+      <c r="H12" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I12" s="37">
+        <f>B12*G12</f>
+        <v>63815.238794999997</v>
+      </c>
+      <c r="J12" s="37">
+        <f>I12-E12</f>
+        <v>493.95053400000324</v>
+      </c>
+      <c r="K12" s="46">
+        <f>I12/E12-1</f>
+        <v>7.800702537257509E-3</v>
+      </c>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="35">
+        <v>1089</v>
+      </c>
+      <c r="C13" s="36">
+        <v>3.238464</v>
+      </c>
+      <c r="D13" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E13" s="37">
+        <f>B13*C13</f>
+        <v>3526.6872960000001</v>
+      </c>
+      <c r="F13" s="45">
+        <f>E13/$E$17</f>
+        <v>9.796798739838462E-3</v>
+      </c>
+      <c r="G13" s="36">
+        <v>3.2821699999999998</v>
+      </c>
+      <c r="H13" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I13" s="37">
+        <f>B13*G13</f>
+        <v>3574.2831299999998</v>
+      </c>
+      <c r="J13" s="37">
+        <f>I13-E13</f>
+        <v>47.595833999999741</v>
+      </c>
+      <c r="K13" s="46">
+        <f>I13/E13-1</f>
+        <v>1.3495904231141553E-2</v>
+      </c>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="35">
+        <v>315</v>
+      </c>
+      <c r="C14" s="36">
+        <v>7.2992220000000003</v>
+      </c>
+      <c r="D14" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E14" s="37">
+        <f>B14*C14</f>
+        <v>2299.2549300000001</v>
+      </c>
+      <c r="F14" s="45">
+        <f>E14/$E$17</f>
+        <v>6.3871094628491186E-3</v>
+      </c>
+      <c r="G14" s="36">
+        <v>7.4112429999999998</v>
+      </c>
+      <c r="H14" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I14" s="37">
+        <f>B14*G14</f>
+        <v>2334.541545</v>
+      </c>
+      <c r="J14" s="37">
+        <f>I14-E14</f>
+        <v>35.286614999999983</v>
+      </c>
+      <c r="K14" s="46">
+        <f>I14/E14-1</f>
+        <v>1.5346978075197582E-2</v>
+      </c>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="35">
+        <v>29</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2.4048500000000002</v>
+      </c>
+      <c r="D15" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E15" s="37">
+        <f>B15*C15</f>
+        <v>69.740650000000002</v>
+      </c>
+      <c r="F15" s="45">
+        <f>E15/$E$17</f>
+        <v>1.9373283046967237E-4</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2.431746</v>
+      </c>
+      <c r="H15" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I15" s="37">
+        <f>B15*G15</f>
+        <v>70.520634000000001</v>
+      </c>
+      <c r="J15" s="37">
+        <f>I15-E15</f>
+        <v>0.7799839999999989</v>
+      </c>
+      <c r="K15" s="46">
+        <f>I15/E15-1</f>
+        <v>1.118406553423279E-2</v>
+      </c>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="47">
+        <f>SUM(E10:E15)</f>
+        <v>359983.64258099999</v>
+      </c>
+      <c r="F17" s="48">
+        <f>SUM(F10:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47">
+        <f>SUM(I10:I15)</f>
+        <v>365188.60562799999</v>
+      </c>
+      <c r="J17" s="47">
+        <f>SUM(J10:J15)</f>
+        <v>5204.9630470000211</v>
+      </c>
+      <c r="K17" s="50">
+        <f>I17/E17-1</f>
+        <v>1.4458887658565844E-2</v>
+      </c>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="35">
+        <v>5</v>
+      </c>
+      <c r="C19" s="51">
+        <f>1503.75/5</f>
+        <v>300.75</v>
+      </c>
+      <c r="D19" s="39">
+        <v>45355</v>
+      </c>
+      <c r="E19" s="51">
+        <f>B19*C19</f>
+        <v>1503.75</v>
+      </c>
+      <c r="F19" s="35">
+        <v>100</v>
+      </c>
+      <c r="G19" s="51">
+        <v>305.27999999999997</v>
+      </c>
+      <c r="H19" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I19" s="51">
+        <f>B19*G19</f>
+        <v>1526.3999999999999</v>
+      </c>
+      <c r="J19" s="51">
+        <f>I19-E19</f>
+        <v>22.649999999999864</v>
+      </c>
+      <c r="K19" s="46">
+        <f>I19/E19-1</f>
+        <v>1.5062344139650685E-2</v>
+      </c>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="35">
+        <v>5</v>
+      </c>
+      <c r="C20" s="37">
+        <f>C19*E5</f>
+        <v>9440.5424999999996</v>
+      </c>
+      <c r="D20" s="39">
+        <v>45355</v>
+      </c>
+      <c r="E20" s="47">
+        <f>B20*C20</f>
+        <v>47202.712499999994</v>
+      </c>
+      <c r="F20" s="58">
+        <v>100</v>
+      </c>
+      <c r="G20" s="47">
+        <f>G19*I5</f>
+        <v>9747.5903999999991</v>
+      </c>
+      <c r="H20" s="39">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I20" s="37">
+        <f>I19*$I$5</f>
+        <v>48737.951999999997</v>
+      </c>
+      <c r="J20" s="51">
+        <f>J19*$I$5</f>
+        <v>723.21449999999561</v>
+      </c>
+      <c r="K20" s="46">
+        <f>I20/E20-1</f>
+        <v>3.2524391474324732E-2</v>
+      </c>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="52">
+        <f ca="1">$K$5</f>
+        <v>45360</v>
+      </c>
+      <c r="I22" s="53">
+        <f>I17+I20</f>
+        <v>413926.55762799998</v>
+      </c>
+      <c r="J22" s="53">
+        <f>J20+J17</f>
+        <v>5928.1775470000166</v>
+      </c>
+      <c r="K22" s="54">
+        <f>J22/I22</f>
+        <v>1.4321810083825862E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="53">
+        <f>J22*0.07</f>
+        <v>414.97242829000118</v>
+      </c>
+      <c r="K23" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
+  <dimension ref="B3:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13" style="30" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="61"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="68">
+        <f ca="1">L5</f>
+        <v>45360</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="36">
+        <v>31.93</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="65">
+        <f ca="1">TODAY()</f>
+        <v>45360</v>
+      </c>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="70">
+        <v>2070261</v>
+      </c>
+      <c r="D10" s="71">
+        <v>0.17699000000000001</v>
+      </c>
+      <c r="E10" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F10" s="72">
+        <f>C10*D10</f>
+        <v>366415.49439000001</v>
+      </c>
+      <c r="G10" s="73">
+        <f>F10/$F$16</f>
+        <v>0.50224526787566548</v>
+      </c>
+      <c r="H10" s="71">
+        <v>0.17698900000000001</v>
+      </c>
+      <c r="I10" s="65">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J10" s="72">
+        <f>C10*H10</f>
+        <v>366413.42412899999</v>
+      </c>
+      <c r="K10" s="72">
+        <f>J10-F10</f>
+        <v>-2.0702610000153072</v>
+      </c>
+      <c r="L10" s="74">
+        <f>J10/F10-1</f>
+        <v>-5.6500367252576567E-6</v>
+      </c>
+      <c r="M10" s="75"/>
+    </row>
+    <row r="11" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="70">
+        <v>1058100</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0.19988900000000001</v>
+      </c>
+      <c r="E11" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F11" s="72">
+        <f>C11*D11</f>
+        <v>211502.5509</v>
+      </c>
+      <c r="G11" s="73">
+        <f>F11/$F$16</f>
+        <v>0.2899062866050463</v>
+      </c>
+      <c r="H11" s="71">
+        <v>0.20144999999999999</v>
+      </c>
+      <c r="I11" s="65">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J11" s="72">
+        <f>C11*H11</f>
+        <v>213154.245</v>
+      </c>
+      <c r="K11" s="72">
+        <f>J11-F11</f>
+        <v>1651.6940999999933</v>
+      </c>
+      <c r="L11" s="74">
+        <f>J11/F11-1</f>
+        <v>7.8093341804701399E-3</v>
+      </c>
+      <c r="M11" s="75"/>
+    </row>
+    <row r="12" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="70">
+        <v>46443</v>
+      </c>
+      <c r="D12" s="71">
+        <v>2.9882599999999999</v>
+      </c>
+      <c r="E12" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F12" s="72">
+        <f>C12*D12</f>
+        <v>138783.75917999999</v>
+      </c>
+      <c r="G12" s="73">
+        <f>F12/$F$16</f>
+        <v>0.19023072815791178</v>
+      </c>
+      <c r="H12" s="71">
+        <v>3.1040049999999999</v>
+      </c>
+      <c r="I12" s="65">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J12" s="72">
+        <f>C12*H12</f>
+        <v>144159.30421499998</v>
+      </c>
+      <c r="K12" s="72">
+        <f>J12-F12</f>
+        <v>5375.5450349999883</v>
+      </c>
+      <c r="L12" s="74">
+        <f>J12/F12-1</f>
+        <v>3.873324275665424E-2</v>
+      </c>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="70">
+        <v>2380</v>
+      </c>
+      <c r="D13" s="71">
+        <v>3.2479200000000001</v>
+      </c>
+      <c r="E13" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F13" s="72">
+        <f>C13*D13</f>
+        <v>7730.0496000000003</v>
+      </c>
+      <c r="G13" s="73">
+        <f>F13/$F$16</f>
+        <v>1.0595569487331528E-2</v>
+      </c>
+      <c r="H13" s="71">
+        <v>3.2821699999999998</v>
+      </c>
+      <c r="I13" s="65">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J13" s="72">
+        <f>C13*H13</f>
+        <v>7811.5645999999997</v>
+      </c>
+      <c r="K13" s="72">
+        <f>J13-F13</f>
+        <v>81.514999999999418</v>
+      </c>
+      <c r="L13" s="74">
+        <f>J13/F13-1</f>
+        <v>1.0545210473164257E-2</v>
+      </c>
+      <c r="M13" s="75"/>
+    </row>
+    <row r="14" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="70">
+        <v>715</v>
+      </c>
+      <c r="D14" s="71">
+        <v>7.0558899999999998</v>
+      </c>
+      <c r="E14" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F14" s="72">
+        <f>C14*D14</f>
+        <v>5044.9613499999996</v>
+      </c>
+      <c r="G14" s="73">
+        <f>F14/$F$16</f>
+        <v>6.915122322737343E-3</v>
+      </c>
+      <c r="H14" s="71">
+        <v>7.4112429999999998</v>
+      </c>
+      <c r="I14" s="65">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J14" s="72">
+        <f>C14*H14</f>
+        <v>5299.0387449999998</v>
+      </c>
+      <c r="K14" s="72">
+        <f>J14-F14</f>
+        <v>254.07739500000025</v>
+      </c>
+      <c r="L14" s="74">
+        <f>J14/F14-1</f>
+        <v>5.0362604859202742E-2</v>
+      </c>
+      <c r="M14" s="75"/>
+    </row>
+    <row r="15" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="70">
+        <v>41</v>
+      </c>
+      <c r="D15" s="71">
+        <v>1.904415</v>
+      </c>
+      <c r="E15" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F15" s="72">
+        <f>C15*D15</f>
+        <v>78.081014999999994</v>
+      </c>
+      <c r="G15" s="73">
+        <f>F15/$F$16</f>
+        <v>1.0702555130744249E-4</v>
+      </c>
+      <c r="H15" s="71">
+        <v>1.920588</v>
+      </c>
+      <c r="I15" s="65">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J15" s="72">
+        <f>C15*H15</f>
+        <v>78.744107999999997</v>
+      </c>
+      <c r="K15" s="72">
+        <f>J15-F15</f>
+        <v>0.66309300000000349</v>
+      </c>
+      <c r="L15" s="74">
+        <f>J15/F15-1</f>
+        <v>8.492371673191057E-3</v>
+      </c>
+      <c r="M15" s="75"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="47">
+        <f>SUM(F10:F15)</f>
+        <v>729554.89643500012</v>
+      </c>
+      <c r="G16" s="48">
+        <f>SUM(G10:G15)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="47">
+        <f>SUM(J10:J15)</f>
+        <v>736916.32079700008</v>
+      </c>
+      <c r="K16" s="47">
+        <f>SUM(K10:K15)</f>
+        <v>7361.4243619999661</v>
+      </c>
+      <c r="L16" s="50">
+        <f>J16/F16-1</f>
+        <v>1.0090295326605103E-2</v>
+      </c>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="61"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="52">
+        <f ca="1">$L$5</f>
+        <v>45360</v>
+      </c>
+      <c r="J18" s="53">
+        <f>J16</f>
+        <v>736916.32079700008</v>
+      </c>
+      <c r="K18" s="53">
+        <f>K16</f>
+        <v>7361.4243619999661</v>
+      </c>
+      <c r="L18" s="54">
+        <f>K18/J18</f>
+        <v>9.9894983382079732E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="61"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="53">
+        <f>K18*0.07</f>
+        <v>515.29970533999767</v>
+      </c>
+      <c r="L19" s="57"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF913FC4-D16A-466B-80AF-3BA7D60322C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBFD46-CEAF-488F-B863-482919C22530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="465" windowWidth="14565" windowHeight="14760" activeTab="2" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
   <si>
     <t>Equity</t>
   </si>
@@ -204,10 +204,10 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₺&quot;* #,##0.00000_-;\-&quot;₺&quot;* #,##0.00000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;₺&quot;* #,##0.000000_-;\-&quot;₺&quot;* #,##0.000000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;₺&quot;* #,##0.00000_-;\-&quot;₺&quot;* #,##0.00000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;₺&quot;* #,##0.000000_-;\-&quot;₺&quot;* #,##0.000000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -420,7 +420,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,19 +483,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,7 +507,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,24 +516,24 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -543,30 +543,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
   <dimension ref="D4:X39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1002,7 @@
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>232.13083639999928</v>
+        <v>159.30461840000032</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1012,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -1026,7 +1025,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>166.19547949999929</v>
+        <v>59.755176500000516</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1036,7 +1035,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -1052,7 +1051,7 @@
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>176.07083639999928</v>
+        <v>130.91461840000034</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1071,7 +1070,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>82.495479499999291</v>
+        <v>-23.944823499999487</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1094,11 +1093,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="19">
-        <v>56.06</v>
+        <v>28.39</v>
       </c>
       <c r="G14" s="2">
         <f>F14/2</f>
-        <v>28.03</v>
+        <v>14.195</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1135,8 +1134,8 @@
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <f>K22</f>
-        <v>-67.869163600000718</v>
+        <f>K20</f>
+        <v>-23.91538159999968</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1155,7 +1154,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V22</f>
-        <v>-162.8145205000007</v>
+        <v>-269.25482349999947</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1175,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="19">
-        <v>300</v>
+        <v>183.22</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1206,7 +1205,7 @@
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>4.1407569818051959</v>
+        <v>5.6112933568157919</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1221,7 +1220,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>1.9856090740740657</v>
+        <v>0.71392086618877548</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1312,15 +1311,15 @@
         <v>-0.1</v>
       </c>
       <c r="G20" s="12">
-        <v>8923.82</v>
+        <v>9071.69</v>
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>-111.05000000000109</v>
+        <v>-76.119999999998981</v>
       </c>
       <c r="J20" s="17">
         <f>$K$13</f>
@@ -1328,10 +1327,10 @@
       </c>
       <c r="K20" s="14">
         <f>I20*J20</f>
-        <v>-34.889689000000345</v>
+        <v>-23.91538159999968</v>
       </c>
       <c r="L20" s="14">
-        <v>-34.89</v>
+        <v>-23.92</v>
       </c>
       <c r="M20" s="6"/>
       <c r="O20" s="2"/>
@@ -1346,11 +1345,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-113.28000000000065</v>
+        <v>-226.21999999999935</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -1358,38 +1357,20 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-35.586912000000204</v>
+        <v>-71.06701299999979</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G21" s="14">
-        <v>8929.9</v>
-      </c>
-      <c r="H21" s="14">
-        <f>$K$12</f>
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="I21" s="12">
-        <f>G21-H21</f>
-        <v>-104.97000000000116</v>
-      </c>
-      <c r="J21" s="17">
-        <f>$K$13</f>
-        <v>0.31418000000000001</v>
-      </c>
-      <c r="K21" s="14">
-        <f>I21*J21</f>
-        <v>-32.979474600000366</v>
-      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="3"/>
       <c r="M21" s="6"/>
       <c r="O21" s="2"/>
@@ -1404,11 +1385,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-197.4900000000016</v>
+        <v>-310.43000000000029</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U22" si="0">$V$13</f>
@@ -1416,7 +1397,7 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-62.041483500000503</v>
+        <v>-97.521584500000088</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
@@ -1429,10 +1410,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="14">
-        <f>SUM(K20:K21)</f>
-        <v>-67.869163600000718</v>
-      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="3"/>
       <c r="M22" s="6"/>
       <c r="O22" s="2"/>
@@ -1447,11 +1425,11 @@
       </c>
       <c r="S22" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="T22" s="14">
         <f>R22-S22</f>
-        <v>-207.5</v>
+        <v>-320.43999999999869</v>
       </c>
       <c r="U22" s="25">
         <f t="shared" si="0"/>
@@ -1459,7 +1437,7 @@
       </c>
       <c r="V22" s="14">
         <f>T22*U22</f>
-        <v>-65.18612499999999</v>
+        <v>-100.66622599999958</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
@@ -1579,7 +1557,7 @@
       </c>
       <c r="F28" s="27">
         <f>F31+F32</f>
-        <v>172.60426179999939</v>
+        <v>66.145888400000615</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1602,7 +1580,7 @@
       </c>
       <c r="Q28" s="27">
         <f>Q31+Q32</f>
-        <v>163.93740299999934</v>
+        <v>57.468865000000562</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1627,7 +1605,7 @@
       </c>
       <c r="F29" s="19">
         <f>F28-F30</f>
-        <v>88.664261799999394</v>
+        <v>-17.794111599999383</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1647,7 +1625,7 @@
       </c>
       <c r="Q29" s="19">
         <f>Q28-Q30</f>
-        <v>83.767402999999334</v>
+        <v>-22.701134999999439</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1710,7 +1688,7 @@
       </c>
       <c r="F31" s="19">
         <f>SUM(K36:K38)-G31</f>
-        <v>-141.85573820000059</v>
+        <v>-248.31411159999936</v>
       </c>
       <c r="G31" s="19">
         <v>3</v>
@@ -1733,7 +1711,7 @@
       </c>
       <c r="Q31" s="19">
         <f>SUM(V36:V38)-R31</f>
-        <v>-157.94259700000066</v>
+        <v>-264.41113499999943</v>
       </c>
       <c r="R31" s="19">
         <v>2.76</v>
@@ -1788,7 +1766,7 @@
       </c>
       <c r="F33" s="26">
         <f>F29/F30+1</f>
-        <v>2.0562814129139788</v>
+        <v>0.78801391946629273</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1803,7 +1781,7 @@
       </c>
       <c r="Q33" s="26">
         <f>Q29/Q30+1</f>
-        <v>2.0448721841087605</v>
+        <v>0.71683753274292827</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1898,11 +1876,11 @@
       </c>
       <c r="H36" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="I36" s="12">
         <f>G36-H36</f>
-        <v>-114.73000000000138</v>
+        <v>-227.67000000000007</v>
       </c>
       <c r="J36" s="17">
         <f>$K$13</f>
@@ -1910,7 +1888,7 @@
       </c>
       <c r="K36" s="14">
         <f>I36*J36</f>
-        <v>-36.045871400000436</v>
+        <v>-71.529360600000032</v>
       </c>
       <c r="L36" s="14">
         <v>40.61</v>
@@ -1928,18 +1906,18 @@
       </c>
       <c r="S36" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="T36" s="12">
         <f>R36-S36</f>
-        <v>-113.44000000000051</v>
+        <v>-226.3799999999992</v>
       </c>
       <c r="U36" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V36" s="14">
         <f>T36*U36</f>
-        <v>-35.648520000000154</v>
+        <v>-71.139914999999746</v>
       </c>
       <c r="W36" s="14">
         <v>40.61</v>
@@ -1959,11 +1937,11 @@
       </c>
       <c r="H37" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="I37" s="12">
         <f>G37-H37</f>
-        <v>-137.01000000000022</v>
+        <v>-249.94999999999891</v>
       </c>
       <c r="J37" s="17">
         <f>$K$13</f>
@@ -1971,7 +1949,7 @@
       </c>
       <c r="K37" s="14">
         <f>I37*J37</f>
-        <v>-43.045801800000071</v>
+        <v>-78.52929099999966</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="6"/>
@@ -1987,18 +1965,18 @@
       </c>
       <c r="S37" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="T37" s="12">
         <f>R37-S37</f>
-        <v>-185.10000000000036</v>
+        <v>-298.03999999999905</v>
       </c>
       <c r="U37" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V37" s="14">
         <f>T37*U37</f>
-        <v>-58.167675000000109</v>
+        <v>-93.659069999999701</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
@@ -2016,18 +1994,18 @@
       </c>
       <c r="H38" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="I38" s="12">
         <f>G38-H38</f>
-        <v>-190.18000000000029</v>
+        <v>-303.11999999999898</v>
       </c>
       <c r="J38" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K38" s="14">
         <f>I38*J38</f>
-        <v>-59.764065000000087</v>
+        <v>-95.255459999999673</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="6"/>
@@ -2043,18 +2021,18 @@
       </c>
       <c r="S38" s="14">
         <f>$K$12</f>
-        <v>9034.8700000000008</v>
+        <v>9147.81</v>
       </c>
       <c r="T38" s="12">
         <f>R38-S38</f>
-        <v>-195.31000000000131</v>
+        <v>-308.25</v>
       </c>
       <c r="U38" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V38" s="14">
         <f>T38*U38</f>
-        <v>-61.366402000000406</v>
+        <v>-96.852149999999995</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
@@ -2092,7 +2070,7 @@
   <dimension ref="A4:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,7 +2097,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="68">
+      <c r="I4" s="66">
         <f ca="1">K5</f>
         <v>45360</v>
       </c>
@@ -2154,10 +2132,10 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -2247,30 +2225,30 @@
         <v>45358</v>
       </c>
       <c r="E10" s="37">
-        <f>B10*C10</f>
+        <f t="shared" ref="E10:E15" si="0">B10*C10</f>
         <v>194759.98474399999</v>
       </c>
       <c r="F10" s="45">
-        <f>E10/$E$17</f>
+        <f t="shared" ref="F10:F15" si="1">E10/$E$17</f>
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="36">
         <v>0.17698900000000001</v>
       </c>
       <c r="H10" s="39">
-        <f ca="1">$K$5</f>
+        <f t="shared" ref="H10:H15" ca="1" si="2">$K$5</f>
         <v>45360</v>
       </c>
       <c r="I10" s="37">
-        <f>B10*G10</f>
+        <f t="shared" ref="I10:I15" si="3">B10*G10</f>
         <v>198637.58652400001</v>
       </c>
       <c r="J10" s="37">
-        <f>I10-E10</f>
+        <f t="shared" ref="J10:J15" si="4">I10-E10</f>
         <v>3877.6017800000263</v>
       </c>
       <c r="K10" s="46">
-        <f>I10/E10-1</f>
+        <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
         <v>1.9909643067064886E-2</v>
       </c>
       <c r="L10" s="32"/>
@@ -2289,30 +2267,30 @@
         <v>45358</v>
       </c>
       <c r="E11" s="37">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>96006.686700000006</v>
       </c>
       <c r="F11" s="45">
-        <f>E11/$E$17</f>
+        <f t="shared" si="1"/>
         <v>0.26669735883456852</v>
       </c>
       <c r="G11" s="36">
         <v>0.20144999999999999</v>
       </c>
       <c r="H11" s="39">
-        <f ca="1">$K$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
       <c r="I11" s="37">
-        <f>B11*G11</f>
+        <f t="shared" si="3"/>
         <v>96756.434999999998</v>
       </c>
       <c r="J11" s="37">
-        <f>I11-E11</f>
+        <f t="shared" si="4"/>
         <v>749.74829999999201</v>
       </c>
       <c r="K11" s="46">
-        <f>I11/E11-1</f>
+        <f t="shared" si="5"/>
         <v>7.8093341804701399E-3</v>
       </c>
       <c r="L11" s="32"/>
@@ -2331,30 +2309,30 @@
         <v>45358</v>
       </c>
       <c r="E12" s="37">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>63321.288260999994</v>
       </c>
       <c r="F12" s="45">
-        <f>E12/$E$17</f>
+        <f t="shared" si="1"/>
         <v>0.17590045982923255</v>
       </c>
       <c r="G12" s="36">
         <v>3.1040049999999999</v>
       </c>
       <c r="H12" s="39">
-        <f ca="1">$K$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
       <c r="I12" s="37">
-        <f>B12*G12</f>
+        <f t="shared" si="3"/>
         <v>63815.238794999997</v>
       </c>
       <c r="J12" s="37">
-        <f>I12-E12</f>
+        <f t="shared" si="4"/>
         <v>493.95053400000324</v>
       </c>
       <c r="K12" s="46">
-        <f>I12/E12-1</f>
+        <f t="shared" si="5"/>
         <v>7.800702537257509E-3</v>
       </c>
       <c r="L12" s="32"/>
@@ -2373,30 +2351,30 @@
         <v>45358</v>
       </c>
       <c r="E13" s="37">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>3526.6872960000001</v>
       </c>
       <c r="F13" s="45">
-        <f>E13/$E$17</f>
+        <f t="shared" si="1"/>
         <v>9.796798739838462E-3</v>
       </c>
       <c r="G13" s="36">
         <v>3.2821699999999998</v>
       </c>
       <c r="H13" s="39">
-        <f ca="1">$K$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
       <c r="I13" s="37">
-        <f>B13*G13</f>
+        <f t="shared" si="3"/>
         <v>3574.2831299999998</v>
       </c>
       <c r="J13" s="37">
-        <f>I13-E13</f>
+        <f t="shared" si="4"/>
         <v>47.595833999999741</v>
       </c>
       <c r="K13" s="46">
-        <f>I13/E13-1</f>
+        <f t="shared" si="5"/>
         <v>1.3495904231141553E-2</v>
       </c>
       <c r="L13" s="32"/>
@@ -2415,30 +2393,30 @@
         <v>45358</v>
       </c>
       <c r="E14" s="37">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>2299.2549300000001</v>
       </c>
       <c r="F14" s="45">
-        <f>E14/$E$17</f>
+        <f t="shared" si="1"/>
         <v>6.3871094628491186E-3</v>
       </c>
       <c r="G14" s="36">
         <v>7.4112429999999998</v>
       </c>
       <c r="H14" s="39">
-        <f ca="1">$K$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
       <c r="I14" s="37">
-        <f>B14*G14</f>
+        <f t="shared" si="3"/>
         <v>2334.541545</v>
       </c>
       <c r="J14" s="37">
-        <f>I14-E14</f>
+        <f t="shared" si="4"/>
         <v>35.286614999999983</v>
       </c>
       <c r="K14" s="46">
-        <f>I14/E14-1</f>
+        <f t="shared" si="5"/>
         <v>1.5346978075197582E-2</v>
       </c>
       <c r="L14" s="32"/>
@@ -2457,30 +2435,30 @@
         <v>45358</v>
       </c>
       <c r="E15" s="37">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>69.740650000000002</v>
       </c>
       <c r="F15" s="45">
-        <f>E15/$E$17</f>
+        <f t="shared" si="1"/>
         <v>1.9373283046967237E-4</v>
       </c>
       <c r="G15" s="36">
         <v>2.431746</v>
       </c>
       <c r="H15" s="39">
-        <f ca="1">$K$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
       <c r="I15" s="37">
-        <f>B15*G15</f>
+        <f t="shared" si="3"/>
         <v>70.520634000000001</v>
       </c>
       <c r="J15" s="37">
-        <f>I15-E15</f>
+        <f t="shared" si="4"/>
         <v>0.7799839999999989</v>
       </c>
       <c r="K15" s="46">
-        <f>I15/E15-1</f>
+        <f t="shared" si="5"/>
         <v>1.118406553423279E-2</v>
       </c>
       <c r="L15" s="32"/>
@@ -2699,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
   <dimension ref="B3:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2727,7 +2705,7 @@
       <c r="G4" s="57"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="68">
+      <c r="J4" s="66">
         <f ca="1">L5</f>
         <v>45360</v>
       </c>
@@ -2758,10 +2736,10 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -2837,257 +2815,251 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="68">
         <v>2070261</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="69">
         <v>0.17699000000000001</v>
       </c>
       <c r="E10" s="65">
         <v>45358</v>
       </c>
-      <c r="F10" s="72">
-        <f>C10*D10</f>
+      <c r="F10" s="70">
+        <f t="shared" ref="F10:F15" si="0">C10*D10</f>
         <v>366415.49439000001</v>
       </c>
-      <c r="G10" s="73">
-        <f>F10/$F$16</f>
+      <c r="G10" s="71">
+        <f t="shared" ref="G10:G15" si="1">F10/$F$16</f>
         <v>0.50224526787566548</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="69">
         <v>0.17698900000000001</v>
       </c>
       <c r="I10" s="65">
-        <f ca="1">$L$5</f>
+        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
         <v>45360</v>
       </c>
-      <c r="J10" s="72">
-        <f>C10*H10</f>
+      <c r="J10" s="70">
+        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
         <v>366413.42412899999</v>
       </c>
-      <c r="K10" s="72">
-        <f>J10-F10</f>
+      <c r="K10" s="70">
+        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
         <v>-2.0702610000153072</v>
       </c>
-      <c r="L10" s="74">
-        <f>J10/F10-1</f>
+      <c r="L10" s="72">
+        <f t="shared" ref="L10:L16" si="5">J10/F10-1</f>
         <v>-5.6500367252576567E-6</v>
       </c>
-      <c r="M10" s="75"/>
-    </row>
-    <row r="11" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+    </row>
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="68">
         <v>1058100</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="69">
         <v>0.19988900000000001</v>
       </c>
       <c r="E11" s="65">
         <v>45358</v>
       </c>
-      <c r="F11" s="72">
-        <f>C11*D11</f>
+      <c r="F11" s="70">
+        <f t="shared" si="0"/>
         <v>211502.5509</v>
       </c>
-      <c r="G11" s="73">
-        <f>F11/$F$16</f>
+      <c r="G11" s="71">
+        <f t="shared" si="1"/>
         <v>0.2899062866050463</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="69">
         <v>0.20144999999999999</v>
       </c>
       <c r="I11" s="65">
-        <f ca="1">$L$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
-      <c r="J11" s="72">
-        <f>C11*H11</f>
+      <c r="J11" s="70">
+        <f t="shared" si="3"/>
         <v>213154.245</v>
       </c>
-      <c r="K11" s="72">
-        <f>J11-F11</f>
+      <c r="K11" s="70">
+        <f t="shared" si="4"/>
         <v>1651.6940999999933</v>
       </c>
-      <c r="L11" s="74">
-        <f>J11/F11-1</f>
+      <c r="L11" s="72">
+        <f t="shared" si="5"/>
         <v>7.8093341804701399E-3</v>
       </c>
-      <c r="M11" s="75"/>
-    </row>
-    <row r="12" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+    </row>
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="68">
         <v>46443</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="69">
         <v>2.9882599999999999</v>
       </c>
       <c r="E12" s="65">
         <v>45358</v>
       </c>
-      <c r="F12" s="72">
-        <f>C12*D12</f>
+      <c r="F12" s="70">
+        <f t="shared" si="0"/>
         <v>138783.75917999999</v>
       </c>
-      <c r="G12" s="73">
-        <f>F12/$F$16</f>
+      <c r="G12" s="71">
+        <f t="shared" si="1"/>
         <v>0.19023072815791178</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="69">
         <v>3.1040049999999999</v>
       </c>
       <c r="I12" s="65">
-        <f ca="1">$L$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
-      <c r="J12" s="72">
-        <f>C12*H12</f>
+      <c r="J12" s="70">
+        <f t="shared" si="3"/>
         <v>144159.30421499998</v>
       </c>
-      <c r="K12" s="72">
-        <f>J12-F12</f>
+      <c r="K12" s="70">
+        <f t="shared" si="4"/>
         <v>5375.5450349999883</v>
       </c>
-      <c r="L12" s="74">
-        <f>J12/F12-1</f>
+      <c r="L12" s="72">
+        <f t="shared" si="5"/>
         <v>3.873324275665424E-2</v>
       </c>
-      <c r="M12" s="75"/>
-    </row>
-    <row r="13" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
+    </row>
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="68">
         <v>2380</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="69">
         <v>3.2479200000000001</v>
       </c>
       <c r="E13" s="65">
         <v>45358</v>
       </c>
-      <c r="F13" s="72">
-        <f>C13*D13</f>
+      <c r="F13" s="70">
+        <f t="shared" si="0"/>
         <v>7730.0496000000003</v>
       </c>
-      <c r="G13" s="73">
-        <f>F13/$F$16</f>
+      <c r="G13" s="71">
+        <f t="shared" si="1"/>
         <v>1.0595569487331528E-2</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="69">
         <v>3.2821699999999998</v>
       </c>
       <c r="I13" s="65">
-        <f ca="1">$L$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
-      <c r="J13" s="72">
-        <f>C13*H13</f>
+      <c r="J13" s="70">
+        <f t="shared" si="3"/>
         <v>7811.5645999999997</v>
       </c>
-      <c r="K13" s="72">
-        <f>J13-F13</f>
+      <c r="K13" s="70">
+        <f t="shared" si="4"/>
         <v>81.514999999999418</v>
       </c>
-      <c r="L13" s="74">
-        <f>J13/F13-1</f>
+      <c r="L13" s="72">
+        <f t="shared" si="5"/>
         <v>1.0545210473164257E-2</v>
       </c>
-      <c r="M13" s="75"/>
-    </row>
-    <row r="14" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+    </row>
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="68">
         <v>715</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="69">
         <v>7.0558899999999998</v>
       </c>
       <c r="E14" s="65">
         <v>45358</v>
       </c>
-      <c r="F14" s="72">
-        <f>C14*D14</f>
+      <c r="F14" s="70">
+        <f t="shared" si="0"/>
         <v>5044.9613499999996</v>
       </c>
-      <c r="G14" s="73">
-        <f>F14/$F$16</f>
+      <c r="G14" s="71">
+        <f t="shared" si="1"/>
         <v>6.915122322737343E-3</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="69">
         <v>7.4112429999999998</v>
       </c>
       <c r="I14" s="65">
-        <f ca="1">$L$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
-      <c r="J14" s="72">
-        <f>C14*H14</f>
+      <c r="J14" s="70">
+        <f t="shared" si="3"/>
         <v>5299.0387449999998</v>
       </c>
-      <c r="K14" s="72">
-        <f>J14-F14</f>
+      <c r="K14" s="70">
+        <f t="shared" si="4"/>
         <v>254.07739500000025</v>
       </c>
-      <c r="L14" s="74">
-        <f>J14/F14-1</f>
+      <c r="L14" s="72">
+        <f t="shared" si="5"/>
         <v>5.0362604859202742E-2</v>
       </c>
-      <c r="M14" s="75"/>
-    </row>
-    <row r="15" spans="2:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
+    </row>
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="68">
         <v>41</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="69">
         <v>1.904415</v>
       </c>
       <c r="E15" s="65">
         <v>45358</v>
       </c>
-      <c r="F15" s="72">
-        <f>C15*D15</f>
+      <c r="F15" s="70">
+        <f t="shared" si="0"/>
         <v>78.081014999999994</v>
       </c>
-      <c r="G15" s="73">
-        <f>F15/$F$16</f>
+      <c r="G15" s="71">
+        <f t="shared" si="1"/>
         <v>1.0702555130744249E-4</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="69">
         <v>1.920588</v>
       </c>
       <c r="I15" s="65">
-        <f ca="1">$L$5</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45360</v>
       </c>
-      <c r="J15" s="72">
-        <f>C15*H15</f>
+      <c r="J15" s="70">
+        <f t="shared" si="3"/>
         <v>78.744107999999997</v>
       </c>
-      <c r="K15" s="72">
-        <f>J15-F15</f>
+      <c r="K15" s="70">
+        <f t="shared" si="4"/>
         <v>0.66309300000000349</v>
       </c>
-      <c r="L15" s="74">
-        <f>J15/F15-1</f>
+      <c r="L15" s="72">
+        <f t="shared" si="5"/>
         <v>8.492371673191057E-3</v>
       </c>
-      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
@@ -3113,7 +3085,7 @@
         <v>7361.4243619999661</v>
       </c>
       <c r="L16" s="50">
-        <f>J16/F16-1</f>
+        <f t="shared" si="5"/>
         <v>1.0090295326605103E-2</v>
       </c>
       <c r="M16" s="32"/>
@@ -3178,7 +3150,7 @@
       <c r="L19" s="57"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="77"/>
+      <c r="G23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBFD46-CEAF-488F-B863-482919C22530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E281FF4-1D78-441B-837D-5C283B8C918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="15465" yWindow="3660" windowWidth="13065" windowHeight="11850" activeTab="2" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
   <dimension ref="D4:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
   <dimension ref="B3:M23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G10" s="71">
         <f t="shared" ref="G10:G15" si="1">F10/$F$16</f>
-        <v>0.50224526787566548</v>
+        <v>0.50224745315890928</v>
       </c>
       <c r="H10" s="69">
         <v>0.17698900000000001</v>
@@ -2864,18 +2864,18 @@
         <v>1058100</v>
       </c>
       <c r="D11" s="69">
-        <v>0.19988900000000001</v>
+        <v>0.19988600000000001</v>
       </c>
       <c r="E11" s="65">
         <v>45358</v>
       </c>
       <c r="F11" s="70">
         <f t="shared" si="0"/>
-        <v>211502.5509</v>
+        <v>211499.37660000002</v>
       </c>
       <c r="G11" s="71">
         <f t="shared" si="1"/>
-        <v>0.2899062866050463</v>
+        <v>0.28990319696738798</v>
       </c>
       <c r="H11" s="69">
         <v>0.20144999999999999</v>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="K11" s="70">
         <f t="shared" si="4"/>
-        <v>1651.6940999999933</v>
+        <v>1654.8683999999776</v>
       </c>
       <c r="L11" s="72">
         <f t="shared" si="5"/>
-        <v>7.8093341804701399E-3</v>
+        <v>7.8244599421668504E-3</v>
       </c>
     </row>
     <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G12" s="71">
         <f t="shared" si="1"/>
-        <v>0.19023072815791178</v>
+        <v>0.19023155585714419</v>
       </c>
       <c r="H12" s="69">
         <v>3.1040049999999999</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G13" s="71">
         <f t="shared" si="1"/>
-        <v>1.0595569487331528E-2</v>
+        <v>1.0595615588951474E-2</v>
       </c>
       <c r="H13" s="69">
         <v>3.2821699999999998</v>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="G14" s="71">
         <f t="shared" si="1"/>
-        <v>6.915122322737343E-3</v>
+        <v>6.915152410628473E-3</v>
       </c>
       <c r="H14" s="69">
         <v>7.4112429999999998</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G15" s="71">
         <f t="shared" si="1"/>
-        <v>1.0702555130744249E-4</v>
+        <v>1.0702601697861728E-4</v>
       </c>
       <c r="H15" s="69">
         <v>1.920588</v>
@@ -3068,7 +3068,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="47">
         <f>SUM(F10:F15)</f>
-        <v>729554.89643500012</v>
+        <v>729551.72213500005</v>
       </c>
       <c r="G16" s="48">
         <f>SUM(G10:G15)</f>
@@ -3082,11 +3082,11 @@
       </c>
       <c r="K16" s="47">
         <f>SUM(K10:K15)</f>
-        <v>7361.4243619999661</v>
+        <v>7364.5986619999503</v>
       </c>
       <c r="L16" s="50">
         <f t="shared" si="5"/>
-        <v>1.0090295326605103E-2</v>
+        <v>1.0094690257803629E-2</v>
       </c>
       <c r="M16" s="32"/>
     </row>
@@ -3124,11 +3124,11 @@
       </c>
       <c r="K18" s="53">
         <f>K16</f>
-        <v>7361.4243619999661</v>
+        <v>7364.5986619999503</v>
       </c>
       <c r="L18" s="54">
         <f>K18/J18</f>
-        <v>9.9894983382079732E-3</v>
+        <v>9.9938058829188176E-3</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="53">
         <f>K18*0.07</f>
-        <v>515.29970533999767</v>
+        <v>515.52190633999658</v>
       </c>
       <c r="L19" s="57"/>
     </row>

--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E281FF4-1D78-441B-837D-5C283B8C918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC063A-F52C-448F-9D17-FE4585B258EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15465" yWindow="3660" windowWidth="13065" windowHeight="11850" activeTab="2" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
     <sheet name="Can Aksoy" sheetId="2" r:id="rId2"/>
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId3"/>
+    <sheet name="Market Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="428">
   <si>
     <t>Equity</t>
   </si>
@@ -191,6 +214,1137 @@
   </si>
   <si>
     <t>IJV</t>
+  </si>
+  <si>
+    <t>satış fiyatı</t>
+  </si>
+  <si>
+    <t>NAKİT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>2024-03-10T00:00:00</t>
+  </si>
+  <si>
+    <t>DOWJONES</t>
+  </si>
+  <si>
+    <t>SP500</t>
+  </si>
+  <si>
+    <t>NASDAQ100</t>
+  </si>
+  <si>
+    <t>NASDAQ</t>
+  </si>
+  <si>
+    <t>RUSSEL2000</t>
+  </si>
+  <si>
+    <t>FTSE100</t>
+  </si>
+  <si>
+    <t>FTSEALL</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>CAC40</t>
+  </si>
+  <si>
+    <t>FTSEMIB</t>
+  </si>
+  <si>
+    <t>IBEX35</t>
+  </si>
+  <si>
+    <t>MICEX</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>ISEQ</t>
+  </si>
+  <si>
+    <t>LUXX</t>
+  </si>
+  <si>
+    <t>EUROSTOXX50</t>
+  </si>
+  <si>
+    <t>EURONEXT100</t>
+  </si>
+  <si>
+    <t>TORONTOTSX</t>
+  </si>
+  <si>
+    <t>IBOVESPA</t>
+  </si>
+  <si>
+    <t>IPCMEXICO</t>
+  </si>
+  <si>
+    <t>NIKKEI225</t>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+  </si>
+  <si>
+    <t>CSI300</t>
+  </si>
+  <si>
+    <t>SHANGHAI50</t>
+  </si>
+  <si>
+    <t>SENSEX</t>
+  </si>
+  <si>
+    <t>TAIEX</t>
+  </si>
+  <si>
+    <t>STI</t>
+  </si>
+  <si>
+    <t>TA100</t>
+  </si>
+  <si>
+    <t>DUBAIFMGI</t>
+  </si>
+  <si>
+    <t>ASX200</t>
+  </si>
+  <si>
+    <t>NZX50</t>
+  </si>
+  <si>
+    <t>NSEASI</t>
+  </si>
+  <si>
+    <t>JALSHASI</t>
+  </si>
+  <si>
+    <t>JSE40</t>
+  </si>
+  <si>
+    <t>EGX30</t>
+  </si>
+  <si>
+    <t>CFG25</t>
+  </si>
+  <si>
+    <t>NAIROBI20</t>
+  </si>
+  <si>
+    <t>DSEI</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>GGSECI</t>
+  </si>
+  <si>
+    <t>GABORONE</t>
+  </si>
+  <si>
+    <t>NSX</t>
+  </si>
+  <si>
+    <t>SEMDEX</t>
+  </si>
+  <si>
+    <t>NGX Industrial Index</t>
+  </si>
+  <si>
+    <t>NGX Insurance Index</t>
+  </si>
+  <si>
+    <t>NGX Lotus Islamic Index</t>
+  </si>
+  <si>
+    <t>NGX Main-Board Index</t>
+  </si>
+  <si>
+    <t>NGX MERI GROWTH INDEX</t>
+  </si>
+  <si>
+    <t>NGX MERI VALUE INDEX</t>
+  </si>
+  <si>
+    <t>NGX Oil/Gas Index</t>
+  </si>
+  <si>
+    <t>NGX Pension Broad Index</t>
+  </si>
+  <si>
+    <t>NGX PENSION INDEX</t>
+  </si>
+  <si>
+    <t>NGX Premium Index</t>
+  </si>
+  <si>
+    <t>NGX Sovereign Bond Index</t>
+  </si>
+  <si>
+    <t>FBN HERITAGE FUND</t>
+  </si>
+  <si>
+    <t>FBN FIXED INCOME FUND</t>
+  </si>
+  <si>
+    <t>FBN MONEY MARKET FUND</t>
+  </si>
+  <si>
+    <t>THE FRONTIER FUND</t>
+  </si>
+  <si>
+    <t>FSDH CORAL GROWTH FUND</t>
+  </si>
+  <si>
+    <t>FSDH CORAL INCOME FUND</t>
+  </si>
+  <si>
+    <t>ABACUS MONEY MARKET FUND</t>
+  </si>
+  <si>
+    <t>VANTAGE BALANCED FUND</t>
+  </si>
+  <si>
+    <t>VANTAGE GUARANTEED INCOME FUND</t>
+  </si>
+  <si>
+    <t>LEGACY DEBT FUND</t>
+  </si>
+  <si>
+    <t>LEGACY EQUITY FUND</t>
+  </si>
+  <si>
+    <t>LEGACY MONEY MARKET FUND</t>
+  </si>
+  <si>
+    <t>LEGACY USD BOND FUND</t>
+  </si>
+  <si>
+    <t>SFS FIXED INCOME FUND</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL BOND FUND</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL BALANCED FUND</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL EUROBOND FUND</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL EQUITY FUND</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL MONEY MARKET FUND</t>
+  </si>
+  <si>
+    <t>CAPITAL OIL PLC</t>
+  </si>
+  <si>
+    <t>JULI PLC.</t>
+  </si>
+  <si>
+    <t>RAK UNITY PET. COMP. PLC.</t>
+  </si>
+  <si>
+    <t>SMART PRODUCTS NIGERIA PLC</t>
+  </si>
+  <si>
+    <t>15.50% ACS JUL 2026</t>
+  </si>
+  <si>
+    <t>16.50% ABC APR 2027</t>
+  </si>
+  <si>
+    <t>11.25% ADB FEB 2021</t>
+  </si>
+  <si>
+    <t>13.30% ADV NOV 2028</t>
+  </si>
+  <si>
+    <t>13.65% ADV NOV 2031</t>
+  </si>
+  <si>
+    <t>15.50% ABGB MAR 2024</t>
+  </si>
+  <si>
+    <t>14.30% AXA MAY 2027</t>
+  </si>
+  <si>
+    <t>15.5% BAU DEC 2021</t>
+  </si>
+  <si>
+    <t>7.50% BUA JAN 2027</t>
+  </si>
+  <si>
+    <t>15.5% CIL JUN 2028</t>
+  </si>
+  <si>
+    <t>6.25% CMBL NOV 2025</t>
+  </si>
+  <si>
+    <t>7.00% CSF DEC 2025</t>
+  </si>
+  <si>
+    <t>11.25% DAN MAY 2024</t>
+  </si>
+  <si>
+    <t>12.50% DAN MAY 2026</t>
+  </si>
+  <si>
+    <t>11.85% DAN APR 2027</t>
+  </si>
+  <si>
+    <t>13.50% DAN MAY 2028</t>
+  </si>
+  <si>
+    <t>12.35% DAN APR 2029</t>
+  </si>
+  <si>
+    <t>13.00% DAN APR 2032</t>
+  </si>
+  <si>
+    <t>12.50% DCM APR 2025</t>
+  </si>
+  <si>
+    <t>12.75% DIF JUL 2029</t>
+  </si>
+  <si>
+    <t>13.50% DIF JUL 2032</t>
+  </si>
+  <si>
+    <t>16.75% DIF DEC 2032</t>
+  </si>
+  <si>
+    <t>14.50% EKI DEC 2020</t>
+  </si>
+  <si>
+    <t>10.00% EPF JAN 2026</t>
+  </si>
+  <si>
+    <t>6.25% FBNQ DEC 2030</t>
+  </si>
+  <si>
+    <t>14.20% FGN MAR 2024</t>
+  </si>
+  <si>
+    <t>12.1493% FGN JUL 2034</t>
+  </si>
+  <si>
+    <t>12.50% FGN JAN 2026</t>
+  </si>
+  <si>
+    <t>12.40% FGN MAR 2036</t>
+  </si>
+  <si>
+    <t>7.899% FGNSB OCT 2024</t>
+  </si>
+  <si>
+    <t>8.376% FGS NOV 2024</t>
+  </si>
+  <si>
+    <t>8.322% FGNSB DEC 2024</t>
+  </si>
+  <si>
+    <t>7.542% FGS JAN 2024</t>
+  </si>
+  <si>
+    <t>7.220% FGS FEB 2024</t>
+  </si>
+  <si>
+    <t>9.470% FGS MAR 2024</t>
+  </si>
+  <si>
+    <t>7.338% FGS APR 2024</t>
+  </si>
+  <si>
+    <t>7.934% FGNSB MAY 2024</t>
+  </si>
+  <si>
+    <t>8.205% FGNSB JUNE 2024</t>
+  </si>
+  <si>
+    <t>8.075% FGNSB JUL 2024</t>
+  </si>
+  <si>
+    <t>9.413% FGNSB AUG 2024</t>
+  </si>
+  <si>
+    <t>11.041% FGNSBSEP2024</t>
+  </si>
+  <si>
+    <t>11.382% FGNSB OCT 2024</t>
+  </si>
+  <si>
+    <t>12.492% FGS NOV 2024</t>
+  </si>
+  <si>
+    <t>12.255% FGNSB DEC 2024</t>
+  </si>
+  <si>
+    <t>3.19% FGS JAN 2024</t>
+  </si>
+  <si>
+    <t>5.214% FGS FEB 2024</t>
+  </si>
+  <si>
+    <t>6.181% FGS MAR 2024</t>
+  </si>
+  <si>
+    <t>6.522% FGS APR 2024</t>
+  </si>
+  <si>
+    <t>8.753% FGS MAY 2024</t>
+  </si>
+  <si>
+    <t>9.889% FGS JUN 2024</t>
+  </si>
+  <si>
+    <t>9.350% FGS JUL 2024</t>
+  </si>
+  <si>
+    <t>9.864% FGNSB AUG 2024</t>
+  </si>
+  <si>
+    <t>8.542% FGS JAN 2025</t>
+  </si>
+  <si>
+    <t>8.220% FGS FEB 2025</t>
+  </si>
+  <si>
+    <t>10.470% FGS MAR 2025</t>
+  </si>
+  <si>
+    <t>8.338% FGS APR 2025</t>
+  </si>
+  <si>
+    <t>8.934% FGNSB MAY 2025</t>
+  </si>
+  <si>
+    <t>9.205% FGNSB JUNE 2025</t>
+  </si>
+  <si>
+    <t>9.075% FGNSB JUL2025</t>
+  </si>
+  <si>
+    <t>10.413% FGNSB AUG 2025</t>
+  </si>
+  <si>
+    <t>12.041% FGNSB SEP 2025</t>
+  </si>
+  <si>
+    <t>12.382% FGNSB OCT 2024</t>
+  </si>
+  <si>
+    <t>13.492% FGS NOV 2025</t>
+  </si>
+  <si>
+    <t>13.255% FGNSB DEC 2025</t>
+  </si>
+  <si>
+    <t>9.600% FGNSB JAN 2025</t>
+  </si>
+  <si>
+    <t>10.043% FGS FEB 2025</t>
+  </si>
+  <si>
+    <t>9.465% FGS MAR 2025</t>
+  </si>
+  <si>
+    <t>10.032% FGS APR 2025</t>
+  </si>
+  <si>
+    <t>10.391% FGNSB MAY 2025</t>
+  </si>
+  <si>
+    <t>10.301% FGNSB JUNE 2025</t>
+  </si>
+  <si>
+    <t>9.070% FGNSB JULY 2025</t>
+  </si>
+  <si>
+    <t>9.634% FGNSB AUG 2025</t>
+  </si>
+  <si>
+    <t>11.031% FGNSB SEPTEMBER 2025</t>
+  </si>
+  <si>
+    <t>11.074% FGNSB OCT 2025</t>
+  </si>
+  <si>
+    <t>10.600% FGNSB JAN 2026</t>
+  </si>
+  <si>
+    <t>11.043% FGS FEB 2026</t>
+  </si>
+  <si>
+    <t>10.465% FGS MAR 2026</t>
+  </si>
+  <si>
+    <t>11.032% FGS APR 2026</t>
+  </si>
+  <si>
+    <t>11.391% FGNSB MAY 2025</t>
+  </si>
+  <si>
+    <t>11.301% FGNSB JUNE 2026</t>
+  </si>
+  <si>
+    <t>10.070% FGNSB JULY 2026</t>
+  </si>
+  <si>
+    <t>10.634% FGNSB AUG 2026</t>
+  </si>
+  <si>
+    <t>12.031% FGNSB SEPTEMBER 2026</t>
+  </si>
+  <si>
+    <t>12.074% FGNSB OCT 2026</t>
+  </si>
+  <si>
+    <t>16.4700% FGN SEP 2024</t>
+  </si>
+  <si>
+    <t>15.743% FGN DEC 2025</t>
+  </si>
+  <si>
+    <t>11.200% FGN JUN 2027</t>
+  </si>
+  <si>
+    <t>13.00% FGN DEC 2031</t>
+  </si>
+  <si>
+    <t>15.64% FGN DEC 2032</t>
+  </si>
+  <si>
+    <t>13.00% FHSUK JUL 2028</t>
+  </si>
+  <si>
+    <t>14.00% FHSUK SEP 2029</t>
+  </si>
+  <si>
+    <t>8.5% FID JAN 2031</t>
+  </si>
+  <si>
+    <t>11.10% FMN FEB 2025</t>
+  </si>
+  <si>
+    <t>14.50% FMN MAY 2026</t>
+  </si>
+  <si>
+    <t>15% INTERSWITCHOCT2026</t>
+  </si>
+  <si>
+    <t>15.00% KGB DEC 2020</t>
+  </si>
+  <si>
+    <t>17.00% KGB MAR 2022</t>
+  </si>
+  <si>
+    <t>16.50% LAB Dec 2023</t>
+  </si>
+  <si>
+    <t>17.25% LAB AUG 2027</t>
+  </si>
+  <si>
+    <t>15.85% LAB AUG 2027</t>
+  </si>
+  <si>
+    <t>13.00% LAB DEC 2031</t>
+  </si>
+  <si>
+    <t>14.675% LASUK MAY 2030</t>
+  </si>
+  <si>
+    <t>13.25% LFZC SEP 2041</t>
+  </si>
+  <si>
+    <t>13.25% LFZC GTEED SEP 2042</t>
+  </si>
+  <si>
+    <t>13.00% LMS MAR 2025</t>
+  </si>
+  <si>
+    <t>13.00% MCI MAR 2026</t>
+  </si>
+  <si>
+    <t>15.00% NAS JAN 2021</t>
+  </si>
+  <si>
+    <t>7.20% NMR NOV 2027</t>
+  </si>
+  <si>
+    <t>14.90% NMR JUL 2030</t>
+  </si>
+  <si>
+    <t>13.80% NMR MAR 2033</t>
+  </si>
+  <si>
+    <t>12.00% NOVA JUL 2027</t>
+  </si>
+  <si>
+    <t>12.00% NSPGB APR 2031</t>
+  </si>
+  <si>
+    <t>15.60% NSPGB FEB 2034</t>
+  </si>
+  <si>
+    <t>13% ONDO JAN 2027</t>
+  </si>
+  <si>
+    <t>14.75% OSUN OCT 2020</t>
+  </si>
+  <si>
+    <t>Primero BRT Securitization SPV</t>
+  </si>
+  <si>
+    <t>(182-DAY CBN TBILL)SIB SEP2024</t>
+  </si>
+  <si>
+    <t>13.25% SIB SEP 2024</t>
+  </si>
+  <si>
+    <t>16.25% SIM OCT 2025</t>
+  </si>
+  <si>
+    <t>15% TAJ SUKUK S1</t>
+  </si>
+  <si>
+    <t>10.00% TSL OCT 2030</t>
+  </si>
+  <si>
+    <t>16.20% UBN JUN 2029</t>
+  </si>
+  <si>
+    <t>12.50% UCAP MAY 2025</t>
+  </si>
+  <si>
+    <t>ABBEY BUILDING SOCIETY PLC</t>
+  </si>
+  <si>
+    <t>ASSOCIATED BUS COMPANY PLC</t>
+  </si>
+  <si>
+    <t>ACADEMY PRESS PLC.</t>
+  </si>
+  <si>
+    <t>AFRICAN ALLIANCE INSURANCE COMPANY PLC</t>
+  </si>
+  <si>
+    <t>AFRICA PRUDENTIAL REGISTRARS PLC</t>
+  </si>
+  <si>
+    <t>AFROMEDIA PLC</t>
+  </si>
+  <si>
+    <t>AIICO INSURANCE PLC.</t>
+  </si>
+  <si>
+    <t>AIRTEL AFRICA PLC</t>
+  </si>
+  <si>
+    <t>ALUMINIUM EXTRUSION IND. PLC.</t>
+  </si>
+  <si>
+    <t>ARBICO PLC.</t>
+  </si>
+  <si>
+    <t>ASO SAVINGS AND LOANS PLC</t>
+  </si>
+  <si>
+    <t>AUSTIN LAZ &amp; COMPANY PLC</t>
+  </si>
+  <si>
+    <t>BERGER PAINTS PLC</t>
+  </si>
+  <si>
+    <t>BETA GLASS CO PLC.</t>
+  </si>
+  <si>
+    <t>BUA CEMENT PLC</t>
+  </si>
+  <si>
+    <t>BUA FOODS PLC</t>
+  </si>
+  <si>
+    <t>CADBURY NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>CAP PLC</t>
+  </si>
+  <si>
+    <t>CAVERTON OFFSHORE SUPPORT GRP PLC</t>
+  </si>
+  <si>
+    <t>CHAMPION BREW. PLC.</t>
+  </si>
+  <si>
+    <t>CHAMS PLC</t>
+  </si>
+  <si>
+    <t>C &amp; I LEASING PLC.</t>
+  </si>
+  <si>
+    <t>CONSOLIDATED HALLMARK INSURANCE PLC</t>
+  </si>
+  <si>
+    <t>CONOIL PLC</t>
+  </si>
+  <si>
+    <t>CORNERSTONE INSURANCE COMPANY PLC.</t>
+  </si>
+  <si>
+    <t>CUSTODIAN AND ALLIED PLC</t>
+  </si>
+  <si>
+    <t>CUTIX PLC.</t>
+  </si>
+  <si>
+    <t>COMPUTER WAREHOUSE GROUP PLC</t>
+  </si>
+  <si>
+    <t>DAAR COMMUNICATIONS PLC</t>
+  </si>
+  <si>
+    <t>DANGOTE SUGAR REFINERY PLC</t>
+  </si>
+  <si>
+    <t>DEAP CAPITAL MANAGEMENT &amp; TRUST PLC</t>
+  </si>
+  <si>
+    <t>DN TYRE &amp; RUBBER PLC</t>
+  </si>
+  <si>
+    <t>EKOCORP PLC.</t>
+  </si>
+  <si>
+    <t>ELLAH LAKES PLC.</t>
+  </si>
+  <si>
+    <t>NIGERIAN ENAMELWARE PLC.</t>
+  </si>
+  <si>
+    <t>ETERNA PLC.</t>
+  </si>
+  <si>
+    <t>ECOBANK TRANSNATIONAL INCORPORATED</t>
+  </si>
+  <si>
+    <t>E-TRANZACT INTERNATIONAL PLC</t>
+  </si>
+  <si>
+    <t>EUNISELL INTERLINKED PLC</t>
+  </si>
+  <si>
+    <t>FCMB GROUP PLC.</t>
+  </si>
+  <si>
+    <t>FIDELITY BANK PLC</t>
+  </si>
+  <si>
+    <t>FIDSON HEALTHCARE PLC</t>
+  </si>
+  <si>
+    <t>FLOUR MILLS NIG. PLC.</t>
+  </si>
+  <si>
+    <t>FTN COCOA PROCESSORS PLC</t>
+  </si>
+  <si>
+    <t>GEREGU Power PLC</t>
+  </si>
+  <si>
+    <t>GLAXO SMITHKLINE CONSUMER NIG. PLC.</t>
+  </si>
+  <si>
+    <t>GOLDEN GUINEA BREW. PLC.</t>
+  </si>
+  <si>
+    <t>GOLDLINK INSURANCE PLC</t>
+  </si>
+  <si>
+    <t>GUARANTY TRUST HOLDING COMPANY PLC</t>
+  </si>
+  <si>
+    <t>GUINEA INSURANCE PLC.</t>
+  </si>
+  <si>
+    <t>GUINNESS NIG PLC</t>
+  </si>
+  <si>
+    <t>HONEYWELL FLOUR MILL PLC</t>
+  </si>
+  <si>
+    <t>IKEJA HOTEL PLC</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL &amp; MEDICAL GASES NIGERIA PLC</t>
+  </si>
+  <si>
+    <t>INFINITY TRUST MORTGAGE BANK PLC</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL BREWERIES PLC.</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL ENERGY INSURANCE COMPANY PLC</t>
+  </si>
+  <si>
+    <t>JAIZ BANK PLC</t>
+  </si>
+  <si>
+    <t>JAPAUL GOLD &amp; VENTURES PLC</t>
+  </si>
+  <si>
+    <t>JULIUS BERGER NIG. PLC.</t>
+  </si>
+  <si>
+    <t>JOHN HOLT PLC.</t>
+  </si>
+  <si>
+    <t>LASACO ASSURANCE PLC.</t>
+  </si>
+  <si>
+    <t>LEARN AFRICA PLC</t>
+  </si>
+  <si>
+    <t>LINKAGE ASSURANCE PLC</t>
+  </si>
+  <si>
+    <t>LIVESTOCK FEEDS PLC.</t>
+  </si>
+  <si>
+    <t>MANSARD INSURANCE PLC</t>
+  </si>
+  <si>
+    <t>MAY &amp; BAKER NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>MUTUAL BENEFITS ASSURANCE PLC.</t>
+  </si>
+  <si>
+    <t>MEDVIEW AIRLINE PLC</t>
+  </si>
+  <si>
+    <t>MEYER PLC.</t>
+  </si>
+  <si>
+    <t>MORISON INDUSTRIES PLC.</t>
+  </si>
+  <si>
+    <t>MRS OIL NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>MULTI-TREX INTEGRATED FOODS PLC</t>
+  </si>
+  <si>
+    <t>MULTIVERSE PLC</t>
+  </si>
+  <si>
+    <t>NIGERIAN AVIATION HANDLING COMPANY PLC</t>
+  </si>
+  <si>
+    <t>NATIONAL SALT CO. NIG. PLC</t>
+  </si>
+  <si>
+    <t>NIGERIAN BREW. PLC.</t>
+  </si>
+  <si>
+    <t>NCR (NIGERIA) PLC.</t>
+  </si>
+  <si>
+    <t>NEIMETH INTERNATIONAL PHARMACEUTICALS PLC</t>
+  </si>
+  <si>
+    <t>N.E.M INSURANCE CO (NIG) PLC.</t>
+  </si>
+  <si>
+    <t>NESTLE NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>NIGERIAN EXCHANGE GROUP</t>
+  </si>
+  <si>
+    <t>CHAPEL HILL DENHAM NIG. INFRAS DEBT FUND</t>
+  </si>
+  <si>
+    <t>NIGER INSURANCE CO. PLC.</t>
+  </si>
+  <si>
+    <t>N NIG. FLOUR MILLS PLC.</t>
+  </si>
+  <si>
+    <t>NOTORE CHEMICAL IND PLC</t>
+  </si>
+  <si>
+    <t>NPF MICROFINANCE BANK PLC</t>
+  </si>
+  <si>
+    <t>SECURE ELECTRONIC TECHNOLOGY PLC</t>
+  </si>
+  <si>
+    <t>OANDO PLC</t>
+  </si>
+  <si>
+    <t>OKOMU OIL PALM PLC.</t>
+  </si>
+  <si>
+    <t>OMATEK VENTURES PLC</t>
+  </si>
+  <si>
+    <t>PHARMA-DEKO PLC.</t>
+  </si>
+  <si>
+    <t>PREMIER PAINTS PLC.</t>
+  </si>
+  <si>
+    <t>PRESCO PLC</t>
+  </si>
+  <si>
+    <t>PRESTIGE ASSURANCE CO. PLC.</t>
+  </si>
+  <si>
+    <t>P Z CUSSONS NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>RED STAR EXPRESS PLC</t>
+  </si>
+  <si>
+    <t>REGENCY ALLIANCE INSURANCE COMPANY PLC</t>
+  </si>
+  <si>
+    <t>RESORT SAVINGS &amp; LOANS PLC</t>
+  </si>
+  <si>
+    <t>ROYAL EXCHANGE PLC.</t>
+  </si>
+  <si>
+    <t>R T BRISCOE PLC.</t>
+  </si>
+  <si>
+    <t>S C O A  NIG. PLC.</t>
+  </si>
+  <si>
+    <t>SKYWAY AVIATION HANDLING COMPANY PLC</t>
+  </si>
+  <si>
+    <t>SOVEREIGN TRUST INSURANCE PLC</t>
+  </si>
+  <si>
+    <t>STANDARD TRUST ASSURANCE PLC</t>
+  </si>
+  <si>
+    <t>STANBIC IBTC  HOLDINGS PLC</t>
+  </si>
+  <si>
+    <t>STANDARD ALLIANCE INSURANCE PLC.</t>
+  </si>
+  <si>
+    <t>STERLING FINANCIAL HOLDINGS COMPANY PLC</t>
+  </si>
+  <si>
+    <t>SUNU ASSURANCES NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>TANTALIZERS PLC</t>
+  </si>
+  <si>
+    <t>THOMAS WYATT NIG. PLC.</t>
+  </si>
+  <si>
+    <t>TOTAL NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>TOURIST COMPANY OF NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>TRANSCORP HOTELS PLC</t>
+  </si>
+  <si>
+    <t>TRANSNATIONAL CORPORATION OF NIGERIA PLC</t>
+  </si>
+  <si>
+    <t>TRANS-NATIONWIDE EXPRESS PLC.</t>
+  </si>
+  <si>
+    <t>TRANSPOWER</t>
+  </si>
+  <si>
+    <t>TRIPPLE GEE AND COMPANY PLC.</t>
+  </si>
+  <si>
+    <t>U A C N  PLC.</t>
+  </si>
+  <si>
+    <t>UNION BANK NIG.PLC.</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL PLC</t>
+  </si>
+  <si>
+    <t>UNION HOMES SAVINGS AND LOANS PLC.</t>
+  </si>
+  <si>
+    <t>UNILEVER NIGERIA PLC.</t>
+  </si>
+  <si>
+    <t>UNION DICON SALT PLC.</t>
+  </si>
+  <si>
+    <t>UNITY BANK PLC</t>
+  </si>
+  <si>
+    <t>UNIVERSAL INSURANCE COMPANY PLC</t>
+  </si>
+  <si>
+    <t>UPDC PLC</t>
+  </si>
+  <si>
+    <t>UNIVERSITY PRESS PLC.</t>
+  </si>
+  <si>
+    <t>GREIF NIGERIA PLC</t>
+  </si>
+  <si>
+    <t>VERITAS KAPITAL ASSURANCE PLC</t>
+  </si>
+  <si>
+    <t>VFD GROUP PLC</t>
+  </si>
+  <si>
+    <t>VITAFOAM NIG PLC.</t>
+  </si>
+  <si>
+    <t>WAPIC INSURANCE PLC</t>
+  </si>
+  <si>
+    <t>WEMA BANK PLC.</t>
+  </si>
+  <si>
+    <t>GREENWICH ASSET ETF</t>
+  </si>
+  <si>
+    <t>LOTUS HALAL EQUITY ETF</t>
+  </si>
+  <si>
+    <t>MERISTEM GROWTH EXCHANGE TRADED FUND</t>
+  </si>
+  <si>
+    <t>MERISTEM VALUE EXCHANGE TRADED FUND</t>
+  </si>
+  <si>
+    <t>NEWGOLD EXCHANGE TRADED FUND (ETF)</t>
+  </si>
+  <si>
+    <t>THE SIAML PENSION ETF 40</t>
+  </si>
+  <si>
+    <t>STANBIC IBTC ETF 30</t>
+  </si>
+  <si>
+    <t>VETIVA BANKING ETF</t>
+  </si>
+  <si>
+    <t>VETIVA CONSUMER GOODS ETF</t>
+  </si>
+  <si>
+    <t>VETIVA GRIFFIN 30 ETF</t>
+  </si>
+  <si>
+    <t>VETIVA INDUSTRIAL ETF</t>
+  </si>
+  <si>
+    <t>VETIVA S &amp; P NIGERIA SOVEREIGN BOND ETF</t>
+  </si>
+  <si>
+    <t>BRICLINKS AFRICA PLC</t>
+  </si>
+  <si>
+    <t>CHELLARAMS PLC.</t>
+  </si>
+  <si>
+    <t>LIVINGTRUST MORTGAGE BANK PLC</t>
+  </si>
+  <si>
+    <t>MCNICHOLS PLC</t>
+  </si>
+  <si>
+    <t>MECURE INDUSTRIES PLC</t>
+  </si>
+  <si>
+    <t>RONCHESS GLOBAL RESOURCES PLC</t>
+  </si>
+  <si>
+    <t>THE INITIATES PLC</t>
+  </si>
+  <si>
+    <t>NGX All-Share Index</t>
+  </si>
+  <si>
+    <t>NGX 30 Index</t>
+  </si>
+  <si>
+    <t>UNITED CAPITAL WEALTH FOR WOMEN FUND</t>
+  </si>
+  <si>
+    <t>UNITYBANK RIGHTS</t>
+  </si>
+  <si>
+    <t>Access Holdings PLC</t>
+  </si>
+  <si>
+    <t>DANGOTE CEMENT PLC</t>
+  </si>
+  <si>
+    <t>FBN HOLDINGS PLC</t>
+  </si>
+  <si>
+    <t>MTN NIGERIA PLC</t>
+  </si>
+  <si>
+    <t>SEPLAT PETROLEUM DEVELOPMENT COMPANY LTD</t>
+  </si>
+  <si>
+    <t>UNITED BANK FOR AFRICA PLC</t>
+  </si>
+  <si>
+    <t>LAFARGE WAPCO PLC.</t>
+  </si>
+  <si>
+    <t>ZENITH INTERNATIONAL BANK PLC</t>
+  </si>
+  <si>
+    <t>NIGERIA ENERYGY SECTOR FUND</t>
+  </si>
+  <si>
+    <t>SFS REAL ESTATE INVESTMENT TRUST</t>
+  </si>
+  <si>
+    <t>UNION HOMES REAL ESTATE INVESTMENT TRUST (REIT)</t>
+  </si>
+  <si>
+    <t>UPDC REAL ESTATE INVESTMENT TRUST</t>
+  </si>
+  <si>
+    <t>NAS100</t>
+  </si>
+  <si>
+    <t>P/L %</t>
   </si>
 </sst>
 </file>
@@ -420,7 +1574,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,6 +1720,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,6 +1741,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268003</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Resim 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21BD7C3-1955-E9EF-3523-63A4F86BEB7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="544742"/>
+          <a:ext cx="5744878" cy="2761059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242869</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2306BA05-D39F-D990-8322-698E58E5BFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438899" y="3488122"/>
+          <a:ext cx="5710220" cy="2817428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,28 +2131,132 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{59B5EAD5-C8AE-487A-80F8-D2346E9D0AF3}">
+  <we:reference id="wa104380801" version="1.5.0.0" store="tr-TR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380801" version="1.5.0.0" store="WA104380801" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{27FECC4F-3C0E-4F1C-ACA4-CF88C055B0B8}">
+  <we:reference id="wa104100404" version="3.0.0.1" store="tr-TR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104100404" version="3.0.0.1" store="wa104100404" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="UniqueID" value="&quot;20242121710197667793&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJFy1a" value="&quot;&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQ0IMg==" value="&quot;dxoB&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJFS5IIFkm" value="&quot;AQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQYDMg==" value="&quot;AQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRgUMA==" value="&quot;AGZ2WFZlf0U=&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRsFOQ==" value="&quot;AQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRoKLQ==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRwJOQ==" value="&quot;AGZ2WQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQsQMg==" value="&quot;AGZ2WFZk&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQUVOQ==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRsVLw==" value="&quot;AXh2&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRoVMQ==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQUUIQ==" value="&quot;AGZ2X1M=&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQUIPA==" value="&quot;A3g=&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRoEIw==" value="&quot;AQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQYSJw==" value="&quot;Ag==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQkFNg==" value="&quot;AGZ2WFc=&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRoDJg==" value="&quot;BQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQkUJg==" value="&quot;AQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRsSNA==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQUDIQ==" value="&quot;Ag==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GRsJNg==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQQWIQ==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQQWJQ==" value="&quot;AA==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQ8HJQ==" value="&quot;AGZ2WFZlf0U=&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQEWJg==" value="&quot;AGZ/UQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQ4DNA==" value="&quot;AGZ2WFZlf0U=&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQEWPA==" value="&quot;AQ==&quot;"/>
+    <we:property name="fSk0AwMhbzA7MiNJKyBcG1U6GQEWMQ==" value="&quot;Aw==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28tKA8=" value="&quot;dxoB&quot;"/>
+    <we:property name="cykoSCc+PBsjZw8JIAJZAw==" value="&quot;AQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZw0KMg==" value="&quot;&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28mIw8=" value="&quot;AQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH284NA0=" value="&quot;AGZ2WFZlf0U=&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH287JQQ=" value="&quot;AQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH286KhA=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH288KQQ=" value="&quot;AGZ2WQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28rMA8=" value="&quot;AGZ2WFZk&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28lNQQ=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH287NRI=" value="&quot;AXh2&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH286NQw=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28lNBw=" value="&quot;AGZ2X1M=&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28lKAE=" value="&quot;A3g=&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH286JB4=" value="&quot;AQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28mMho=" value="&quot;Ag==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28pJQs=" value="&quot;AGZ2WFc=&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH286Ixs=" value="&quot;BQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28pNBs=" value="&quot;AQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH287Mgk=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28lIxw=" value="&quot;Ag==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH287KQs=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28kNhw=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28kNhg=" value="&quot;AA==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28vJxg=" value="&quot;AGZ2WFZlf0U=&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28hNhs=" value="&quot;AGZ/UQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28uIwk=" value="&quot;AGZ2WFZlf0U=&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28hNgE=" value="&quot;AQ==&quot;"/>
+    <we:property name="cykoSCc+PBsjZzEHNDlVH28hNgw=" value="&quot;Aw==&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="refEdit" type="matrix" appref="{C14FD929-DFF1-4C42-B649-9440199D2FFE}"/>
+    <we:binding id="Worker" type="matrix" appref="{29C68C4C-6316-4499-B74D-B6D4D36EA7AD}"/>
+    <we:binding id="Can AksoyrefEdit" type="matrix" appref="{373B747A-7579-4D93-84F8-F84D425E4053}"/>
+    <we:binding id="Can AksoyWorker" type="matrix" appref="{16543E2C-3DFA-490E-A56A-1DAE64007A71}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
   <dimension ref="D4:X39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
     <col min="23" max="23" width="12.140625" customWidth="1"/>
@@ -1002,7 +2356,7 @@
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>159.30461840000032</v>
+        <v>61.190387926846711</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1011,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -1025,7 +2379,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>59.755176500000516</v>
+        <v>-8323.5166389999995</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1035,7 +2389,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -1051,7 +2405,7 @@
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>130.91461840000034</v>
+        <v>-3.2796120731532881</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1060,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="18">
-        <v>0.31418000000000001</v>
+        <v>0.19739274248467581</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="6"/>
@@ -1070,7 +2424,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-23.944823499999487</v>
+        <v>-8407.2166390000002</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1093,11 +2447,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="19">
-        <v>28.39</v>
+        <v>64.47</v>
       </c>
       <c r="G14" s="2">
         <f>F14/2</f>
-        <v>14.195</v>
+        <v>32.234999999999999</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1134,8 +2488,8 @@
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <f>K20</f>
-        <v>-23.91538159999968</v>
+        <f>K22</f>
+        <v>-49.109612073153286</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1154,7 +2508,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V22</f>
-        <v>-269.25482349999947</v>
+        <v>-8652.5266389999997</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1174,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="19">
-        <v>183.22</v>
+        <v>110.3</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1205,7 +2559,7 @@
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>5.6112933568157919</v>
+        <v>0.94912964055912385</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1220,7 +2574,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>0.71392086618877548</v>
+        <v>-99.44464323775388</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1276,7 +2630,9 @@
       <c r="L19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="77" t="s">
+        <v>427</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="13" t="s">
@@ -1305,34 +2661,36 @@
     <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="F20" s="12">
         <v>-0.1</v>
       </c>
       <c r="G20" s="12">
-        <v>9071.69</v>
+        <v>17940.21</v>
       </c>
       <c r="H20" s="14">
-        <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18000</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>-76.119999999998981</v>
+        <v>-59.790000000000873</v>
       </c>
       <c r="J20" s="17">
         <f>$K$13</f>
-        <v>0.31418000000000001</v>
+        <v>0.19739274248467581</v>
       </c>
       <c r="K20" s="14">
         <f>I20*J20</f>
-        <v>-23.91538159999968</v>
+        <v>-11.80211207315894</v>
       </c>
       <c r="L20" s="14">
-        <v>-23.92</v>
-      </c>
-      <c r="M20" s="6"/>
+        <v>-20.29</v>
+      </c>
+      <c r="M20" s="7">
+        <f>(H20/G20-1)*F20*10</f>
+        <v>-3.332736907762035E-3</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
         <v>16</v>
@@ -1345,11 +2703,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-226.21999999999935</v>
+        <v>-9121.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -1357,22 +2715,43 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-71.06701299999979</v>
+        <v>-2865.4909514999999</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
+      <c r="E21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>9152.2800000000007</v>
+      </c>
+      <c r="H21" s="14">
+        <v>9270</v>
+      </c>
+      <c r="I21" s="12">
+        <f>G21-H21</f>
+        <v>-117.71999999999935</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0.3124999999999537</v>
+      </c>
+      <c r="K21" s="14">
+        <f>I21*J21</f>
+        <v>-36.787499999994346</v>
+      </c>
+      <c r="L21" s="14">
+        <v>2.15</v>
+      </c>
+      <c r="M21" s="7">
+        <f>(H21/G21-1)*F21*10</f>
+        <v>-1.2862368721236585E-2</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
         <v>16</v>
@@ -1385,11 +2764,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-310.43000000000029</v>
+        <v>-9205.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U22" si="0">$V$13</f>
@@ -1397,7 +2776,7 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-97.521584500000088</v>
+        <v>-2891.9455230000003</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
@@ -1410,8 +2789,11 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="14">
+        <f>SUM(K20:K21)-0.52</f>
+        <v>-49.109612073153286</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="O22" s="2"/>
       <c r="P22" s="13" t="s">
@@ -1425,11 +2807,11 @@
       </c>
       <c r="S22" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="T22" s="14">
         <f>R22-S22</f>
-        <v>-320.43999999999869</v>
+        <v>-9215.6299999999992</v>
       </c>
       <c r="U22" s="25">
         <f t="shared" si="0"/>
@@ -1437,7 +2819,7 @@
       </c>
       <c r="V22" s="14">
         <f>T22*U22</f>
-        <v>-100.66622599999958</v>
+        <v>-2895.0901644999994</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
@@ -1557,7 +2939,7 @@
       </c>
       <c r="F28" s="27">
         <f>F31+F32</f>
-        <v>66.145888400000615</v>
+        <v>-6185.0795372100574</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1580,7 +2962,7 @@
       </c>
       <c r="Q28" s="27">
         <f>Q31+Q32</f>
-        <v>57.468865000000562</v>
+        <v>-8328.0267480000002</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1605,7 +2987,7 @@
       </c>
       <c r="F29" s="19">
         <f>F28-F30</f>
-        <v>-17.794111599999383</v>
+        <v>-6269.019537210057</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1625,7 +3007,7 @@
       </c>
       <c r="Q29" s="19">
         <f>Q28-Q30</f>
-        <v>-22.701134999999439</v>
+        <v>-8408.1967480000003</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1688,7 +3070,7 @@
       </c>
       <c r="F31" s="19">
         <f>SUM(K36:K38)-G31</f>
-        <v>-248.31411159999936</v>
+        <v>-6499.5395372100575</v>
       </c>
       <c r="G31" s="19">
         <v>3</v>
@@ -1711,7 +3093,7 @@
       </c>
       <c r="Q31" s="19">
         <f>SUM(V36:V38)-R31</f>
-        <v>-264.41113499999943</v>
+        <v>-8649.9067479999994</v>
       </c>
       <c r="R31" s="19">
         <v>2.76</v>
@@ -1766,7 +3148,7 @@
       </c>
       <c r="F33" s="26">
         <f>F29/F30+1</f>
-        <v>0.78801391946629273</v>
+        <v>-73.684531060400971</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1781,7 +3163,7 @@
       </c>
       <c r="Q33" s="26">
         <f>Q29/Q30+1</f>
-        <v>0.71683753274292827</v>
+        <v>-103.87959022078084</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1876,19 +3258,19 @@
       </c>
       <c r="H36" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="I36" s="12">
         <f>G36-H36</f>
-        <v>-227.67000000000007</v>
+        <v>-9122.86</v>
       </c>
       <c r="J36" s="17">
         <f>$K$13</f>
-        <v>0.31418000000000001</v>
+        <v>0.19739274248467581</v>
       </c>
       <c r="K36" s="14">
         <f>I36*J36</f>
-        <v>-71.529360600000032</v>
+        <v>-1800.7863547037496</v>
       </c>
       <c r="L36" s="14">
         <v>40.61</v>
@@ -1906,18 +3288,18 @@
       </c>
       <c r="S36" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="T36" s="12">
         <f>R36-S36</f>
-        <v>-226.3799999999992</v>
+        <v>-9121.57</v>
       </c>
       <c r="U36" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V36" s="14">
         <f>T36*U36</f>
-        <v>-71.139914999999746</v>
+        <v>-2866.4533724999997</v>
       </c>
       <c r="W36" s="14">
         <v>40.61</v>
@@ -1937,19 +3319,19 @@
       </c>
       <c r="H37" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="I37" s="12">
         <f>G37-H37</f>
-        <v>-249.94999999999891</v>
+        <v>-9145.14</v>
       </c>
       <c r="J37" s="17">
         <f>$K$13</f>
-        <v>0.31418000000000001</v>
+        <v>0.19739274248467581</v>
       </c>
       <c r="K37" s="14">
         <f>I37*J37</f>
-        <v>-78.52929099999966</v>
+        <v>-1805.1842650063081</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="6"/>
@@ -1965,18 +3347,18 @@
       </c>
       <c r="S37" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="T37" s="12">
         <f>R37-S37</f>
-        <v>-298.03999999999905</v>
+        <v>-9193.23</v>
       </c>
       <c r="U37" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V37" s="14">
         <f>T37*U37</f>
-        <v>-93.659069999999701</v>
+        <v>-2888.9725274999996</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
@@ -1994,18 +3376,18 @@
       </c>
       <c r="H38" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="I38" s="12">
         <f>G38-H38</f>
-        <v>-303.11999999999898</v>
+        <v>-9198.31</v>
       </c>
       <c r="J38" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K38" s="14">
         <f>I38*J38</f>
-        <v>-95.255459999999673</v>
+        <v>-2890.5689174999998</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="6"/>
@@ -2021,18 +3403,18 @@
       </c>
       <c r="S38" s="14">
         <f>$K$12</f>
-        <v>9147.81</v>
+        <v>18043</v>
       </c>
       <c r="T38" s="12">
         <f>R38-S38</f>
-        <v>-308.25</v>
+        <v>-9203.44</v>
       </c>
       <c r="U38" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V38" s="14">
         <f>T38*U38</f>
-        <v>-96.852149999999995</v>
+        <v>-2891.7208479999999</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
@@ -2067,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B82FAE-4EF4-4047-8CD2-C2C2EAB6C6F8}">
-  <dimension ref="A4:L23"/>
+  <dimension ref="A4:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,6 +3466,7 @@
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2099,7 +3482,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="38" t="s">
@@ -2122,12 +3505,12 @@
         <v>44</v>
       </c>
       <c r="I5" s="36">
-        <v>31.93</v>
+        <v>32.03</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="L5" s="32"/>
     </row>
@@ -2233,23 +3616,23 @@
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="36">
-        <v>0.17698900000000001</v>
+        <v>0.17799599999999999</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>198637.58652400001</v>
+        <v>199767.75873599999</v>
       </c>
       <c r="J10" s="37">
         <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>3877.6017800000263</v>
+        <v>5007.7739920000022</v>
       </c>
       <c r="K10" s="46">
         <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>1.9909643067064886E-2</v>
+        <v>2.5712540481980461E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
@@ -2275,23 +3658,23 @@
         <v>0.26669735883456852</v>
       </c>
       <c r="G11" s="36">
-        <v>0.20144999999999999</v>
+        <v>0.202096</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>96756.434999999998</v>
+        <v>97066.708799999993</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="4"/>
-        <v>749.74829999999201</v>
+        <v>1060.0220999999874</v>
       </c>
       <c r="K11" s="46">
         <f t="shared" si="5"/>
-        <v>7.8093341804701399E-3</v>
+        <v>1.1041127825943242E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -2317,23 +3700,23 @@
         <v>0.17590045982923255</v>
       </c>
       <c r="G12" s="36">
-        <v>3.1040049999999999</v>
+        <v>3.115729</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="3"/>
-        <v>63815.238794999997</v>
+        <v>64056.272511000003</v>
       </c>
       <c r="J12" s="37">
         <f t="shared" si="4"/>
-        <v>493.95053400000324</v>
+        <v>734.98425000000861</v>
       </c>
       <c r="K12" s="46">
         <f t="shared" si="5"/>
-        <v>7.800702537257509E-3</v>
+        <v>1.1607221997292916E-2</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -2359,23 +3742,23 @@
         <v>9.796798739838462E-3</v>
       </c>
       <c r="G13" s="36">
-        <v>3.2821699999999998</v>
+        <v>3.3077999999999999</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="3"/>
-        <v>3574.2831299999998</v>
+        <v>3602.1941999999999</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="4"/>
-        <v>47.595833999999741</v>
+        <v>75.506903999999849</v>
       </c>
       <c r="K13" s="46">
         <f t="shared" si="5"/>
-        <v>1.3495904231141553E-2</v>
+        <v>2.141014999703561E-2</v>
       </c>
       <c r="L13" s="32"/>
     </row>
@@ -2401,23 +3784,23 @@
         <v>6.3871094628491186E-3</v>
       </c>
       <c r="G14" s="36">
-        <v>7.4112429999999998</v>
+        <v>7.4480079999999997</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="3"/>
-        <v>2334.541545</v>
+        <v>2346.1225199999999</v>
       </c>
       <c r="J14" s="37">
         <f t="shared" si="4"/>
-        <v>35.286614999999983</v>
+        <v>46.867589999999836</v>
       </c>
       <c r="K14" s="46">
         <f t="shared" si="5"/>
-        <v>1.5346978075197582E-2</v>
+        <v>2.0383816247813824E-2</v>
       </c>
       <c r="L14" s="32"/>
     </row>
@@ -2443,23 +3826,23 @@
         <v>1.9373283046967237E-4</v>
       </c>
       <c r="G15" s="36">
-        <v>2.431746</v>
+        <v>2.4513099999999999</v>
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="3"/>
-        <v>70.520634000000001</v>
+        <v>71.087989999999991</v>
       </c>
       <c r="J15" s="37">
         <f t="shared" si="4"/>
-        <v>0.7799839999999989</v>
+        <v>1.3473399999999884</v>
       </c>
       <c r="K15" s="46">
         <f t="shared" si="5"/>
-        <v>1.118406553423279E-2</v>
+        <v>1.9319292263550558E-2</v>
       </c>
       <c r="L15" s="32"/>
     </row>
@@ -2494,15 +3877,15 @@
       <c r="H17" s="49"/>
       <c r="I17" s="47">
         <f>SUM(I10:I15)</f>
-        <v>365188.60562799999</v>
+        <v>366910.14475699991</v>
       </c>
       <c r="J17" s="47">
         <f>SUM(J10:J15)</f>
-        <v>5204.9630470000211</v>
+        <v>6926.5021759999981</v>
       </c>
       <c r="K17" s="50">
         <f>I17/E17-1</f>
-        <v>1.4458887658565844E-2</v>
+        <v>1.924115808801341E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
@@ -2515,7 +3898,9 @@
       <c r="D18" s="36"/>
       <c r="E18" s="37"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
@@ -2544,23 +3929,23 @@
         <v>100</v>
       </c>
       <c r="G19" s="51">
-        <v>305.27999999999997</v>
+        <v>303.36500000000001</v>
       </c>
       <c r="H19" s="39">
         <f ca="1">$K$5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I19" s="51">
         <f>B19*G19</f>
-        <v>1526.3999999999999</v>
+        <v>1516.825</v>
       </c>
       <c r="J19" s="51">
         <f>I19-E19</f>
-        <v>22.649999999999864</v>
+        <v>13.075000000000045</v>
       </c>
       <c r="K19" s="46">
         <f>I19/E19-1</f>
-        <v>1.5062344139650685E-2</v>
+        <v>8.6949293433085106E-3</v>
       </c>
       <c r="L19" s="32"/>
     </row>
@@ -2587,23 +3972,23 @@
       </c>
       <c r="G20" s="47">
         <f>G19*I5</f>
-        <v>9747.5903999999991</v>
+        <v>9716.7809500000003</v>
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="I20" s="37">
         <f>I19*$I$5</f>
-        <v>48737.951999999997</v>
+        <v>48583.904750000002</v>
       </c>
       <c r="J20" s="51">
         <f>J19*$I$5</f>
-        <v>723.21449999999561</v>
+        <v>418.79225000000145</v>
       </c>
       <c r="K20" s="46">
         <f>I20/E20-1</f>
-        <v>3.2524391474324732E-2</v>
+        <v>2.9260866099591443E-2</v>
       </c>
       <c r="L20" s="32"/>
     </row>
@@ -2621,31 +4006,22 @@
       <c r="K21" s="57"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="61" t="s">
+        <v>52</v>
+      </c>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="56"/>
       <c r="F22" s="57"/>
-      <c r="G22" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="52">
-        <f ca="1">$K$5</f>
-        <v>45360</v>
-      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="53">
-        <f>I17+I20</f>
-        <v>413926.55762799998</v>
-      </c>
-      <c r="J22" s="53">
-        <f>J20+J17</f>
-        <v>5928.1775470000166</v>
-      </c>
-      <c r="K22" s="54">
-        <f>J22/I22</f>
-        <v>1.4321810083825862E-2</v>
-      </c>
+        <f>1550.05-I19</f>
+        <v>33.224999999999909</v>
+      </c>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
@@ -2654,22 +4030,77 @@
       <c r="D23" s="55"/>
       <c r="E23" s="56"/>
       <c r="F23" s="57"/>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="53">
+        <f>I22*I5</f>
+        <v>1064.1967499999971</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="52">
+        <f ca="1">$K$5</f>
+        <v>45363</v>
+      </c>
+      <c r="I24" s="53">
+        <f>I17+I20+I23</f>
+        <v>416558.2462569999</v>
+      </c>
+      <c r="J24" s="53">
+        <f>J20+J17</f>
+        <v>7345.2944259999995</v>
+      </c>
+      <c r="K24" s="54">
+        <f>J24/I24</f>
+        <v>1.7633294964153091E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="53">
-        <f>J22*0.07</f>
-        <v>414.97242829000118</v>
-      </c>
-      <c r="K23" s="57"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="53">
+        <f>J24*0.07</f>
+        <v>514.17060981999998</v>
+      </c>
+      <c r="K25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{373B747A-7579-4D93-84F8-F84D425E4053}">
+          <xm:f>'Can Aksoy'!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{16543E2C-3DFA-490E-A56A-1DAE64007A71}">
+          <xm:f>'Can Aksoy'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2677,7 +4108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
   <dimension ref="B3:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2707,7 +4138,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
@@ -2731,7 +4162,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="M5" s="32"/>
     </row>
@@ -2841,7 +4272,7 @@
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
@@ -2882,7 +4313,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
@@ -2923,7 +4354,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
@@ -2964,7 +4395,7 @@
       </c>
       <c r="I13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
@@ -3005,7 +4436,7 @@
       </c>
       <c r="I14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
@@ -3046,7 +4477,7 @@
       </c>
       <c r="I15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J15" s="70">
         <f t="shared" si="3"/>
@@ -3116,7 +4547,7 @@
       </c>
       <c r="I18" s="52">
         <f ca="1">$L$5</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="J18" s="53">
         <f>J16</f>
@@ -3158,4 +4589,3164 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AFD733-4B12-4994-A28E-C3F2CC57E1EA}">
+  <dimension ref="C4:XFD1048575"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="31">
+        <v>38692</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5120.71</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="31">
+        <v>17997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="31">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="31">
+        <v>17815</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="31">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="31">
+        <v>33404</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="31">
+        <v>10306</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="31">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="31">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="31">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="31">
+        <v>11647</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="31">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="31">
+        <v>9678</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="31">
+        <v>21738</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="31">
+        <v>127071</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="31">
+        <v>54936</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="31">
+        <v>38972</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="31">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="31">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="31">
+        <v>74119</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="31">
+        <v>19785</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="31">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="31">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="31">
+        <v>7746</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="31">
+        <v>11924</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="31">
+        <v>101331</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="31">
+        <v>73718</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="31">
+        <v>67298</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="31">
+        <v>32920</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="31">
+        <v>12907</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="31">
+        <v>8708</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="31">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="31">
+        <v>9057</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="31">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>54</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>54</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>54</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>54</v>
+      </c>
+      <c r="D195" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>54</v>
+      </c>
+      <c r="D196" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>54</v>
+      </c>
+      <c r="D203" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>54</v>
+      </c>
+      <c r="D224" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>54</v>
+      </c>
+      <c r="D227" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>54</v>
+      </c>
+      <c r="D237" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>54</v>
+      </c>
+      <c r="D238" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>54</v>
+      </c>
+      <c r="D240" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>54</v>
+      </c>
+      <c r="D241" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>54</v>
+      </c>
+      <c r="D248" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>54</v>
+      </c>
+      <c r="D251" s="31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>54</v>
+      </c>
+      <c r="D252" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>54</v>
+      </c>
+      <c r="D253" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" s="31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>54</v>
+      </c>
+      <c r="D255" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>54</v>
+      </c>
+      <c r="D256" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257" s="31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>54</v>
+      </c>
+      <c r="D260" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>54</v>
+      </c>
+      <c r="D261" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>54</v>
+      </c>
+      <c r="D263" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>54</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>54</v>
+      </c>
+      <c r="D265" s="31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>54</v>
+      </c>
+      <c r="D267" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>54</v>
+      </c>
+      <c r="D271" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" s="31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" s="31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>54</v>
+      </c>
+      <c r="D275" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>54</v>
+      </c>
+      <c r="D276" s="31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" s="31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>54</v>
+      </c>
+      <c r="D278" s="31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>54</v>
+      </c>
+      <c r="D280" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>54</v>
+      </c>
+      <c r="D281" s="31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>54</v>
+      </c>
+      <c r="D283" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>54</v>
+      </c>
+      <c r="D284" s="31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>54</v>
+      </c>
+      <c r="D286" s="31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>54</v>
+      </c>
+      <c r="D287" s="31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>54</v>
+      </c>
+      <c r="D288" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>54</v>
+      </c>
+      <c r="D289" s="31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>54</v>
+      </c>
+      <c r="D291" s="31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>54</v>
+      </c>
+      <c r="D292" s="31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>54</v>
+      </c>
+      <c r="D293" s="31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" s="31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>54</v>
+      </c>
+      <c r="D295" s="31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>54</v>
+      </c>
+      <c r="D296" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>54</v>
+      </c>
+      <c r="D297" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+      <c r="D299" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>54</v>
+      </c>
+      <c r="D300" s="31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>54</v>
+      </c>
+      <c r="D301" s="31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>54</v>
+      </c>
+      <c r="D302" s="31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>54</v>
+      </c>
+      <c r="D303" s="31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>54</v>
+      </c>
+      <c r="D304" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" s="31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" s="31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>54</v>
+      </c>
+      <c r="D308" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>54</v>
+      </c>
+      <c r="D309" s="31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>54</v>
+      </c>
+      <c r="D310" s="31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>54</v>
+      </c>
+      <c r="D311" s="31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>54</v>
+      </c>
+      <c r="D312" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>54</v>
+      </c>
+      <c r="D313" s="31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>54</v>
+      </c>
+      <c r="D314" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>54</v>
+      </c>
+      <c r="D315" s="31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>54</v>
+      </c>
+      <c r="D316" s="31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>54</v>
+      </c>
+      <c r="D317" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>54</v>
+      </c>
+      <c r="D318" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>54</v>
+      </c>
+      <c r="D319" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>54</v>
+      </c>
+      <c r="D320" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>54</v>
+      </c>
+      <c r="D321" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D322" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>54</v>
+      </c>
+      <c r="D323" s="31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>54</v>
+      </c>
+      <c r="D325" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" s="31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>54</v>
+      </c>
+      <c r="D328" s="31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>54</v>
+      </c>
+      <c r="D329" s="31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>54</v>
+      </c>
+      <c r="D330" s="31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>54</v>
+      </c>
+      <c r="D331" s="31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>54</v>
+      </c>
+      <c r="D332" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>54</v>
+      </c>
+      <c r="D333" s="31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>54</v>
+      </c>
+      <c r="D334" s="31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>54</v>
+      </c>
+      <c r="D335" s="31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>54</v>
+      </c>
+      <c r="D336" s="31" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>54</v>
+      </c>
+      <c r="D337" s="31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C338" t="s">
+        <v>54</v>
+      </c>
+      <c r="D338" s="31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>54</v>
+      </c>
+      <c r="D339" s="31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>54</v>
+      </c>
+      <c r="D340" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>54</v>
+      </c>
+      <c r="D341" s="31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>54</v>
+      </c>
+      <c r="D342" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>54</v>
+      </c>
+      <c r="D343" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
+        <v>54</v>
+      </c>
+      <c r="D344" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>54</v>
+      </c>
+      <c r="D345" s="31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>54</v>
+      </c>
+      <c r="D346" s="31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>54</v>
+      </c>
+      <c r="D347" s="31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>54</v>
+      </c>
+      <c r="D348" s="31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>54</v>
+      </c>
+      <c r="D349" s="31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>54</v>
+      </c>
+      <c r="D350" s="31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>54</v>
+      </c>
+      <c r="D351" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>54</v>
+      </c>
+      <c r="D352" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>54</v>
+      </c>
+      <c r="D353" s="31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>54</v>
+      </c>
+      <c r="D354" s="31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>54</v>
+      </c>
+      <c r="D355" s="31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>54</v>
+      </c>
+      <c r="D356" s="31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>54</v>
+      </c>
+      <c r="D357" s="31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>54</v>
+      </c>
+      <c r="D358" s="31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>54</v>
+      </c>
+      <c r="D359" s="31" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>54</v>
+      </c>
+      <c r="D360" s="31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>54</v>
+      </c>
+      <c r="D361" s="31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>54</v>
+      </c>
+      <c r="D362" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>54</v>
+      </c>
+      <c r="D363" s="31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>54</v>
+      </c>
+      <c r="D364" s="31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
+        <v>54</v>
+      </c>
+      <c r="D365" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>54</v>
+      </c>
+      <c r="D366" s="31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>54</v>
+      </c>
+      <c r="D367" s="31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
+        <v>54</v>
+      </c>
+      <c r="D368" s="31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>54</v>
+      </c>
+      <c r="D369" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>54</v>
+      </c>
+      <c r="D370" s="31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
+        <v>54</v>
+      </c>
+      <c r="D371" s="31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C372" t="s">
+        <v>54</v>
+      </c>
+      <c r="D372" s="31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C373" t="s">
+        <v>54</v>
+      </c>
+      <c r="D373" s="31" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C374" t="s">
+        <v>54</v>
+      </c>
+      <c r="D374" s="31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C375" t="s">
+        <v>54</v>
+      </c>
+      <c r="D375" s="31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C376" t="s">
+        <v>54</v>
+      </c>
+      <c r="D376" s="31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048550" t="e" cm="1">
+        <f t="array" ref="XFD1048550">solver_pre</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048551" t="e" cm="1">
+        <f t="array" ref="XFD1048551">solver_scl</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048552" t="e" cm="1">
+        <f t="array" ref="XFD1048552">solver_rlx</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048553" t="e" cm="1">
+        <f t="array" ref="XFD1048553">solver_tol</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048554" t="e" cm="1">
+        <f t="array" ref="XFD1048554">solver_cvg</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048555" t="e" cm="1">
+        <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048556" t="e" cm="1">
+        <f t="array" ref="XFD1048556">solver_ssz</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048557" t="e" cm="1">
+        <f t="array" ref="XFD1048557">solver_rsd</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048558" t="e" cm="1">
+        <f t="array" ref="XFD1048558">solver_mrt</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048559" t="e" cm="1">
+        <f t="array" ref="XFD1048559">solver_mni</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048560" t="e" cm="1">
+        <f t="array" ref="XFD1048560">solver_rbv</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048561" t="e" cm="1">
+        <f t="array" ref="XFD1048561">solver_neg</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048562" t="e" cm="1">
+        <f t="array" ref="XFD1048562">solver_ntr</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048563" t="e" cm="1">
+        <f t="array" ref="XFD1048563">solver_acc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048564" t="e" cm="1">
+        <f t="array" ref="XFD1048564">solver_res</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048565" t="e" cm="1">
+        <f t="array" ref="XFD1048565">solver_ars</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048566" t="e" cm="1">
+        <f t="array" ref="XFD1048566">solver_sta</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048567" t="e" cm="1">
+        <f t="array" ref="XFD1048567">solver_met</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048568" t="e" cm="1">
+        <f t="array" ref="XFD1048568">solver_soc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048569" t="e" cm="1">
+        <f t="array" ref="XFD1048569">solver_lpt</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048570" t="e" cm="1">
+        <f t="array" ref="XFD1048570">solver_lpp</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048571" t="e" cm="1">
+        <f t="array" ref="XFD1048571">solver_gap</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048572" t="e" cm="1">
+        <f t="array" ref="XFD1048572">solver_ips</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048573" t="e" cm="1">
+        <f t="array" ref="XFD1048573">solver_fea</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048574" t="e" cm="1">
+        <f t="array" ref="XFD1048574">solver_ipi</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048575" t="e" cm="1">
+        <f t="array" ref="XFD1048575">solver_ipd</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{C14FD929-DFF1-4C42-B649-9440199D2FFE}">
+          <xm:f>'Market Data'!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{29C68C4C-6316-4499-B74D-B6D4D36EA7AD}">
+          <xm:f>'Market Data'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC063A-F52C-448F-9D17-FE4585B258EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED6487-B9E5-4427-A51C-85A779EC364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
-    <sheet name="Can Aksoy" sheetId="2" r:id="rId2"/>
-    <sheet name="Rabia Çakmak" sheetId="3" r:id="rId3"/>
-    <sheet name="Market Data" sheetId="4" r:id="rId4"/>
+    <sheet name="FOREX ORTAK" sheetId="5" r:id="rId2"/>
+    <sheet name="Can Aksoy" sheetId="2" r:id="rId3"/>
+    <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
+    <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="436">
   <si>
     <t>Equity</t>
   </si>
@@ -1345,6 +1346,30 @@
   </si>
   <si>
     <t>P/L %</t>
+  </si>
+  <si>
+    <t>Rabia</t>
+  </si>
+  <si>
+    <t>İpek</t>
+  </si>
+  <si>
+    <t>Gözde</t>
+  </si>
+  <si>
+    <t>Alper</t>
+  </si>
+  <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Katkılar</t>
+  </si>
+  <si>
+    <t>Katkı %</t>
+  </si>
+  <si>
+    <t>Şimdiki Değer</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1599,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1714,13 +1739,25 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2235,7 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
   <dimension ref="D4:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2630,7 +2667,7 @@
       <c r="L19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="77" t="s">
+      <c r="M19" s="75" t="s">
         <v>427</v>
       </c>
       <c r="O19" s="2"/>
@@ -3448,6 +3485,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAAB90-A191-4B4F-9A7F-947B1B7CEFAF}">
+  <dimension ref="C1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="78">
+        <f ca="1">TODAY()</f>
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="79">
+        <v>315</v>
+      </c>
+      <c r="E3" s="81">
+        <f>D3/$D$7</f>
+        <v>0.18051575931232092</v>
+      </c>
+      <c r="F3" s="79">
+        <f t="shared" ref="F3:F4" si="0">$F$7*E3</f>
+        <v>138.58014326647566</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" s="79">
+        <v>315</v>
+      </c>
+      <c r="E4" s="81">
+        <f t="shared" ref="E4:E7" si="1">D4/$D$7</f>
+        <v>0.18051575931232092</v>
+      </c>
+      <c r="F4" s="79">
+        <f t="shared" si="0"/>
+        <v>138.58014326647566</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" s="79">
+        <v>315</v>
+      </c>
+      <c r="E5" s="81">
+        <f t="shared" si="1"/>
+        <v>0.18051575931232092</v>
+      </c>
+      <c r="F5" s="79">
+        <f>$F$7*E5</f>
+        <v>138.58014326647566</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="79">
+        <v>800</v>
+      </c>
+      <c r="E6" s="81">
+        <f t="shared" si="1"/>
+        <v>0.45845272206303728</v>
+      </c>
+      <c r="F6" s="79">
+        <f>E6*F7</f>
+        <v>351.94957020057313</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="80">
+        <f>SUM(D3:D6)</f>
+        <v>1745</v>
+      </c>
+      <c r="E7" s="81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="80">
+        <v>767.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B82FAE-4EF4-4047-8CD2-C2C2EAB6C6F8}">
   <dimension ref="A4:L25"/>
   <sheetViews>
@@ -3482,7 +3636,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="38" t="s">
@@ -3510,15 +3664,15 @@
       <c r="J5" s="56"/>
       <c r="K5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -3620,7 +3774,7 @@
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
@@ -3662,7 +3816,7 @@
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
@@ -3704,7 +3858,7 @@
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="3"/>
@@ -3746,7 +3900,7 @@
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="3"/>
@@ -3788,7 +3942,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="3"/>
@@ -3830,7 +3984,7 @@
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="3"/>
@@ -3933,7 +4087,7 @@
       </c>
       <c r="H19" s="39">
         <f ca="1">$K$5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I19" s="51">
         <f>B19*G19</f>
@@ -3976,7 +4130,7 @@
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I20" s="37">
         <f>I19*$I$5</f>
@@ -4051,7 +4205,7 @@
       </c>
       <c r="H24" s="52">
         <f ca="1">$K$5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="I24" s="53">
         <f>I17+I20+I23</f>
@@ -4104,7 +4258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
   <dimension ref="B3:M23"/>
   <sheetViews>
@@ -4138,7 +4292,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
@@ -4162,15 +4316,15 @@
       <c r="K5" s="56"/>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -4272,7 +4426,7 @@
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
@@ -4313,7 +4467,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
@@ -4354,7 +4508,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
@@ -4395,7 +4549,7 @@
       </c>
       <c r="I13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
@@ -4436,7 +4590,7 @@
       </c>
       <c r="I14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
@@ -4477,7 +4631,7 @@
       </c>
       <c r="I15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J15" s="70">
         <f t="shared" si="3"/>
@@ -4547,7 +4701,7 @@
       </c>
       <c r="I18" s="52">
         <f ca="1">$L$5</f>
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="J18" s="53">
         <f>J16</f>
@@ -4591,7 +4745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AFD733-4B12-4994-A28E-C3F2CC57E1EA}">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>

--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED6487-B9E5-4427-A51C-85A779EC364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073D5AE-F13A-428D-BCF3-97B0BA6E4F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="463">
   <si>
     <t>Equity</t>
   </si>
@@ -1370,13 +1370,94 @@
   </si>
   <si>
     <t>Şimdiki Değer</t>
+  </si>
+  <si>
+    <t>Başlangıç</t>
+  </si>
+  <si>
+    <t>Bitiş</t>
+  </si>
+  <si>
+    <t>İsim</t>
+  </si>
+  <si>
+    <t>1. Konsolidasyon  Hakediş Hesabı</t>
+  </si>
+  <si>
+    <t>15.03.2024 @ 16:30'da</t>
+  </si>
+  <si>
+    <t>Hakedilmiş Tutar</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Önceki</t>
+  </si>
+  <si>
+    <t>Net hakediş</t>
+  </si>
+  <si>
+    <t>2. Konsolidasyon  Hakediş Hesabı</t>
+  </si>
+  <si>
+    <t>1) 906 USD'a 15.03.2024 saat 16:30'da 1000 USD eklendi, anapara 2706,97 USD, Bakiye 1906 USD oldu</t>
+  </si>
+  <si>
+    <t>15.03.2024 @ 16:31'den 23:59'a</t>
+  </si>
+  <si>
+    <t>ilave hakedilmiş Tutar</t>
+  </si>
+  <si>
+    <t>2) 1906 USD 3 saat içinde 1992,85 USD oldu, 1992,85-1906 = 86,85 USD kazandık</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 4 kişi toplam </t>
+  </si>
+  <si>
+    <t>HESAP</t>
+  </si>
+  <si>
+    <t>USD-TR</t>
+  </si>
+  <si>
+    <t>ALPER</t>
+  </si>
+  <si>
+    <t>GÖZDE</t>
+  </si>
+  <si>
+    <t>RABIA</t>
+  </si>
+  <si>
+    <t>IPEK</t>
+  </si>
+  <si>
+    <t>TOPLAM</t>
+  </si>
+  <si>
+    <t>KAZANILACAK</t>
+  </si>
+  <si>
+    <t>KATKI</t>
+  </si>
+  <si>
+    <t>KATKI %</t>
+  </si>
+  <si>
+    <t>HESAPTA</t>
+  </si>
+  <si>
+    <t>ESİN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
@@ -1387,8 +1468,10 @@
     <numFmt numFmtId="169" formatCode="_-&quot;₺&quot;* #,##0.000000_-;\-&quot;₺&quot;* #,##0.000000_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,6 +1569,23 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1599,7 +1699,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1742,12 +1842,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1759,6 +1853,51 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3486,26 +3625,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAAB90-A191-4B4F-9A7F-947B1B7CEFAF}">
-  <dimension ref="C1:F7"/>
+  <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1" s="78">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F1" s="76">
         <f ca="1">TODAY()</f>
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3516,87 +3665,558 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="77">
         <v>315</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="79">
         <f>D3/$D$7</f>
-        <v>0.18051575931232092</v>
-      </c>
-      <c r="F3" s="79">
+        <v>0.18460889287409674</v>
+      </c>
+      <c r="F3" s="77">
         <f t="shared" ref="F3:F4" si="0">$F$7*E3</f>
-        <v>138.58014326647566</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+        <v>167.25565694393165</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>315</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="79">
         <f t="shared" ref="E4:E7" si="1">D4/$D$7</f>
-        <v>0.18051575931232092</v>
-      </c>
-      <c r="F4" s="79">
+        <v>0.18460889287409674</v>
+      </c>
+      <c r="F4" s="77">
         <f t="shared" si="0"/>
-        <v>138.58014326647566</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>167.25565694393165</v>
+      </c>
+      <c r="L4" s="93"/>
+      <c r="M4" s="92" t="s">
+        <v>452</v>
+      </c>
+      <c r="N4" s="97">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="77">
         <v>315</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="79">
         <f t="shared" si="1"/>
-        <v>0.18051575931232092</v>
-      </c>
-      <c r="F5" s="79">
+        <v>0.18460889287409674</v>
+      </c>
+      <c r="F5" s="77">
         <f>$F$7*E5</f>
-        <v>138.58014326647566</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+        <v>167.25565694393165</v>
+      </c>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="79">
-        <v>800</v>
-      </c>
-      <c r="E6" s="81">
+      <c r="D6" s="77">
+        <f>204.62+91.69+465</f>
+        <v>761.31</v>
+      </c>
+      <c r="E6" s="79">
         <f t="shared" si="1"/>
-        <v>0.45845272206303728</v>
-      </c>
-      <c r="F6" s="79">
+        <v>0.44617332137770976</v>
+      </c>
+      <c r="F6" s="77">
         <f>E6*F7</f>
-        <v>351.94957020057313</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+        <v>404.23302916820506</v>
+      </c>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="78">
         <f>SUM(D3:D6)</f>
-        <v>1745</v>
-      </c>
-      <c r="E7" s="81">
+        <v>1706.31</v>
+      </c>
+      <c r="E7" s="79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F7" s="80">
-        <v>767.69</v>
+      <c r="F7" s="78">
+        <v>906</v>
+      </c>
+      <c r="K7" s="94"/>
+    </row>
+    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="K8" s="94"/>
+    </row>
+    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F9" s="82"/>
+      <c r="G9" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="84">
+        <v>44990</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="92"/>
+    </row>
+    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F10" s="82"/>
+      <c r="G10" s="85" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="L10" s="92"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="86" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="87">
+        <f>D3</f>
+        <v>315</v>
+      </c>
+      <c r="I11" s="88">
+        <f>H11/$H$15</f>
+        <v>0.18460889287409674</v>
+      </c>
+      <c r="J11" s="89">
+        <f>$J$15*I11</f>
+        <v>167.25565694393165</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="86"/>
+      <c r="G12" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="87">
+        <f t="shared" ref="H12:H14" si="2">D4</f>
+        <v>315</v>
+      </c>
+      <c r="I12" s="88">
+        <f t="shared" ref="I12:I14" si="3">H12/$H$15</f>
+        <v>0.18460889287409674</v>
+      </c>
+      <c r="J12" s="89">
+        <f t="shared" ref="J12:J14" si="4">$J$15*I12</f>
+        <v>167.25565694393165</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F13" s="86"/>
+      <c r="G13" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="I13" s="88">
+        <f t="shared" si="3"/>
+        <v>0.18460889287409674</v>
+      </c>
+      <c r="J13" s="89">
+        <f t="shared" si="4"/>
+        <v>167.25565694393165</v>
+      </c>
+      <c r="O13" s="100" t="s">
+        <v>459</v>
+      </c>
+      <c r="P13" s="100" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q13" s="100" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F14" s="86"/>
+      <c r="G14" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="2"/>
+        <v>761.31</v>
+      </c>
+      <c r="I14" s="88">
+        <f t="shared" si="3"/>
+        <v>0.44617332137770976</v>
+      </c>
+      <c r="J14" s="89">
+        <f t="shared" si="4"/>
+        <v>404.23302916820506</v>
+      </c>
+      <c r="M14" s="95">
+        <v>9462066</v>
+      </c>
+      <c r="N14" s="92" t="s">
+        <v>453</v>
+      </c>
+      <c r="O14" s="94">
+        <f>204.62+91.69+333.34</f>
+        <v>629.65</v>
+      </c>
+      <c r="P14" s="98">
+        <f>O14/$O$19</f>
+        <v>0.28708995090205441</v>
+      </c>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94">
+        <v>0</v>
+      </c>
+      <c r="S14" s="94"/>
+    </row>
+    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F15" s="86"/>
+      <c r="G15" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="H15" s="89">
+        <f>SUM(H11:H14)</f>
+        <v>1706.31</v>
+      </c>
+      <c r="I15" s="90">
+        <v>1</v>
+      </c>
+      <c r="J15" s="89">
+        <v>906</v>
+      </c>
+      <c r="N15" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="O15" s="94">
+        <v>315.45</v>
+      </c>
+      <c r="P15" s="98">
+        <f t="shared" ref="P15:P19" si="5">O15/$O$19</f>
+        <v>0.14382994522679754</v>
+      </c>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94">
+        <v>1.25</v>
+      </c>
+      <c r="S15" s="94"/>
+    </row>
+    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="N16" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="O16" s="94">
+        <v>314.45999999999998</v>
+      </c>
+      <c r="P16" s="98">
+        <f t="shared" si="5"/>
+        <v>0.14337855310197734</v>
+      </c>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94">
+        <v>5.46</v>
+      </c>
+      <c r="S16" s="94"/>
+    </row>
+    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>450</v>
+      </c>
+      <c r="N17" s="92" t="s">
+        <v>456</v>
+      </c>
+      <c r="O17" s="94">
+        <v>314.45999999999998</v>
+      </c>
+      <c r="P17" s="98">
+        <f t="shared" si="5"/>
+        <v>0.14337855310197734</v>
+      </c>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94">
+        <v>5.48</v>
+      </c>
+      <c r="S17" s="94"/>
+    </row>
+    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>446</v>
+      </c>
+      <c r="N18" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="O18" s="94">
+        <f>20000/32.3</f>
+        <v>619.19504643962853</v>
+      </c>
+      <c r="P18" s="98">
+        <f t="shared" si="5"/>
+        <v>0.28232299766719332</v>
+      </c>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94">
+        <v>0</v>
+      </c>
+      <c r="S18" s="94"/>
+    </row>
+    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>449</v>
+      </c>
+      <c r="N19" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="O19" s="96">
+        <f>SUM(O14:O18)</f>
+        <v>2193.2150464396286</v>
+      </c>
+      <c r="P19" s="99">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="96">
+        <f>SUM(R16:R18)</f>
+        <v>10.940000000000001</v>
+      </c>
+      <c r="S19" s="97">
+        <f>R19*N4</f>
+        <v>353.36200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F20" s="82"/>
+      <c r="G20" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="84">
+        <v>44990</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="J20" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="N20" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="O20" s="96">
+        <v>1992.85</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" s="82"/>
+      <c r="G21" s="85" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>448</v>
+      </c>
+      <c r="K21" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F22" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="87">
+        <f>D3</f>
+        <v>315</v>
+      </c>
+      <c r="I22" s="88">
+        <f>H22/$H$27</f>
+        <v>0.11639507815098106</v>
+      </c>
+      <c r="J22" s="87">
+        <f>$J$27*I22</f>
+        <v>231.9579314931826</v>
+      </c>
+      <c r="K22" s="91">
+        <f>J11</f>
+        <v>167.25565694393165</v>
+      </c>
+      <c r="L22" s="91">
+        <f>J22-K22</f>
+        <v>64.702274549250944</v>
+      </c>
+      <c r="N22" s="95" t="s">
+        <v>458</v>
+      </c>
+      <c r="O22" s="96">
+        <f>O20-O19</f>
+        <v>-200.36504643962871</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="86"/>
+      <c r="G23" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="H23" s="87">
+        <f>D4</f>
+        <v>315</v>
+      </c>
+      <c r="I23" s="88">
+        <f t="shared" ref="I23:I26" si="6">H23/$H$27</f>
+        <v>0.11639507815098106</v>
+      </c>
+      <c r="J23" s="87">
+        <f t="shared" ref="J23:J26" si="7">$J$27*I23</f>
+        <v>231.9579314931826</v>
+      </c>
+      <c r="K23" s="91">
+        <f>J12</f>
+        <v>167.25565694393165</v>
+      </c>
+      <c r="L23" s="91">
+        <f t="shared" ref="L23:L26" si="8">J23-K23</f>
+        <v>64.702274549250944</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="86"/>
+      <c r="G24" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="H24" s="87">
+        <f>D5</f>
+        <v>315</v>
+      </c>
+      <c r="I24" s="88">
+        <f t="shared" si="6"/>
+        <v>0.11639507815098106</v>
+      </c>
+      <c r="J24" s="87">
+        <f t="shared" si="7"/>
+        <v>231.9579314931826</v>
+      </c>
+      <c r="K24" s="91">
+        <f>J13</f>
+        <v>167.25565694393165</v>
+      </c>
+      <c r="L24" s="91">
+        <f t="shared" si="8"/>
+        <v>64.702274549250944</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="86"/>
+      <c r="G25" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" s="87">
+        <f>D6+333.33</f>
+        <v>1094.6399999999999</v>
+      </c>
+      <c r="I25" s="88">
+        <f t="shared" si="6"/>
+        <v>0.40447843919742821</v>
+      </c>
+      <c r="J25" s="87">
+        <f t="shared" si="7"/>
+        <v>806.06485755459482</v>
+      </c>
+      <c r="K25" s="91">
+        <f>J14</f>
+        <v>404.23302916820506</v>
+      </c>
+      <c r="L25" s="91">
+        <f t="shared" si="8"/>
+        <v>401.83182838638976</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="86"/>
+      <c r="G26" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="87">
+        <v>666.66</v>
+      </c>
+      <c r="I26" s="88">
+        <f t="shared" si="6"/>
+        <v>0.24633632634962865</v>
+      </c>
+      <c r="J26" s="87">
+        <f t="shared" si="7"/>
+        <v>490.91134796585743</v>
+      </c>
+      <c r="K26" s="91">
+        <v>0</v>
+      </c>
+      <c r="L26" s="91">
+        <f t="shared" si="8"/>
+        <v>490.91134796585743</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27" s="86"/>
+      <c r="G27" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="H27" s="89">
+        <f>SUM(H22:H26)</f>
+        <v>2706.2999999999997</v>
+      </c>
+      <c r="I27" s="90">
+        <f>SUM(I22:I26)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="89">
+        <f>O20</f>
+        <v>1992.85</v>
+      </c>
+      <c r="K27" s="57"/>
+      <c r="L27" s="91">
+        <f>SUM(L22:L26)</f>
+        <v>1086.8499999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F22:F27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3636,7 +4256,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="38" t="s">
@@ -3664,15 +4284,15 @@
       <c r="J5" s="56"/>
       <c r="K5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -3774,7 +4394,7 @@
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
@@ -3816,7 +4436,7 @@
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
@@ -3858,7 +4478,7 @@
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="3"/>
@@ -3900,7 +4520,7 @@
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="3"/>
@@ -3942,7 +4562,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="3"/>
@@ -3984,7 +4604,7 @@
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="3"/>
@@ -4087,7 +4707,7 @@
       </c>
       <c r="H19" s="39">
         <f ca="1">$K$5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I19" s="51">
         <f>B19*G19</f>
@@ -4130,7 +4750,7 @@
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I20" s="37">
         <f>I19*$I$5</f>
@@ -4205,7 +4825,7 @@
       </c>
       <c r="H24" s="52">
         <f ca="1">$K$5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="I24" s="53">
         <f>I17+I20+I23</f>
@@ -4292,7 +4912,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
@@ -4316,15 +4936,15 @@
       <c r="K5" s="56"/>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -4426,7 +5046,7 @@
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
@@ -4467,7 +5087,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
@@ -4508,7 +5128,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
@@ -4549,7 +5169,7 @@
       </c>
       <c r="I13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
@@ -4590,7 +5210,7 @@
       </c>
       <c r="I14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
@@ -4631,7 +5251,7 @@
       </c>
       <c r="I15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J15" s="70">
         <f t="shared" si="3"/>
@@ -4701,7 +5321,7 @@
       </c>
       <c r="I18" s="52">
         <f ca="1">$L$5</f>
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="J18" s="53">
         <f>J16</f>

--- a/XLS-CSV/MM_MarginCalculator.xlsx
+++ b/XLS-CSV/MM_MarginCalculator.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED6487-B9E5-4427-A51C-85A779EC364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1375,7 +1374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1742,12 +1741,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,12 +1753,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
-    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2269,40 +2268,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X39"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2356,7 +2355,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2386,7 +2385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
@@ -2435,7 +2434,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
@@ -2478,7 +2477,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2519,7 +2518,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
@@ -2559,7 +2558,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2589,7 +2588,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
@@ -2621,7 +2620,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2643,7 +2642,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2695,7 +2694,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2757,7 +2756,7 @@
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>13</v>
@@ -2818,7 +2817,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="13"/>
       <c r="F22" s="12"/>
@@ -2861,7 +2860,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2883,7 +2882,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D25" s="23">
         <v>9675887</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2939,7 +2938,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2969,7 +2968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="11" t="s">
         <v>0</v>
@@ -3017,7 +3016,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="11" t="s">
         <v>1</v>
@@ -3059,7 +3058,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
       <c r="E30" s="11" t="s">
         <v>2</v>
@@ -3100,7 +3099,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" s="11" t="s">
         <v>3</v>
@@ -3148,7 +3147,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="6"/>
     </row>
-    <row r="32" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="11" t="s">
         <v>4</v>
@@ -3178,7 +3177,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="11" t="s">
         <v>5</v>
@@ -3210,7 +3209,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="6"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3232,7 +3231,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="6"/>
     </row>
-    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13" t="s">
@@ -3282,7 +3281,7 @@
       </c>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="13" t="s">
         <v>16</v>
@@ -3343,7 +3342,7 @@
       </c>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="13" t="s">
         <v>16</v>
@@ -3400,7 +3399,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="13" t="s">
         <v>16</v>
@@ -3456,7 +3455,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3485,27 +3484,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAAB90-A191-4B4F-9A7F-947B1B7CEFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1" s="78">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="76">
         <f ca="1">TODAY()</f>
         <v>45366</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3516,83 +3515,83 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="77">
         <v>315</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="79">
         <f>D3/$D$7</f>
         <v>0.18051575931232092</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="77">
         <f t="shared" ref="F3:F4" si="0">$F$7*E3</f>
         <v>138.58014326647566</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>315</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="79">
         <f t="shared" ref="E4:E7" si="1">D4/$D$7</f>
         <v>0.18051575931232092</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="77">
         <f t="shared" si="0"/>
         <v>138.58014326647566</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="77">
         <v>315</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="79">
         <f t="shared" si="1"/>
         <v>0.18051575931232092</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="77">
         <f>$F$7*E5</f>
         <v>138.58014326647566</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="77">
         <v>800</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="79">
         <f t="shared" si="1"/>
         <v>0.45845272206303728</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="77">
         <f>E6*F7</f>
         <v>351.94957020057313</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="78">
         <f>SUM(D3:D6)</f>
         <v>1745</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="78">
         <v>767.69</v>
       </c>
     </row>
@@ -3602,28 +3601,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B82FAE-4EF4-4047-8CD2-C2C2EAB6C6F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -3643,7 +3642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -3668,11 +3667,11 @@
       </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -3684,7 +3683,7 @@
       <c r="K6" s="35"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -3698,7 +3697,7 @@
       <c r="K7" s="35"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -3714,7 +3713,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -3748,7 +3747,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="36">
-        <v>0.17799599999999999</v>
+        <v>0.17999000000000001</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$5</f>
@@ -3778,19 +3777,19 @@
       </c>
       <c r="I10" s="37">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>199767.75873599999</v>
+        <v>202005.65684000001</v>
       </c>
       <c r="J10" s="37">
         <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>5007.7739920000022</v>
+        <v>7245.6720960000239</v>
       </c>
       <c r="K10" s="46">
         <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>2.5712540481980461E-2</v>
+        <v>3.7203084121843588E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>0.26669735883456852</v>
       </c>
       <c r="G11" s="36">
-        <v>0.202096</v>
+        <v>0.20319799999999999</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
@@ -3820,19 +3819,19 @@
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>97066.708799999993</v>
+        <v>97595.999400000001</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="4"/>
-        <v>1060.0220999999874</v>
+        <v>1589.3126999999949</v>
       </c>
       <c r="K11" s="46">
         <f t="shared" si="5"/>
-        <v>1.1041127825943242E-2</v>
+        <v>1.655418757410354E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -3874,7 +3873,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -3916,7 +3915,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -3958,7 +3957,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4000,7 +3999,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4014,7 +4013,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -4031,19 +4030,19 @@
       <c r="H17" s="49"/>
       <c r="I17" s="47">
         <f>SUM(I10:I15)</f>
-        <v>366910.14475699991</v>
+        <v>369677.333461</v>
       </c>
       <c r="J17" s="47">
         <f>SUM(J10:J15)</f>
-        <v>6926.5021759999981</v>
+        <v>9693.6908800000274</v>
       </c>
       <c r="K17" s="50">
         <f>I17/E17-1</f>
-        <v>1.924115808801341E-2</v>
+        <v>2.6928142652534071E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>48</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="K18" s="35"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>40</v>
       </c>
@@ -4103,7 +4102,7 @@
       </c>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>45</v>
       </c>
@@ -4146,7 +4145,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="61"/>
       <c r="B21" s="57"/>
       <c r="C21" s="55"/>
@@ -4159,7 +4158,7 @@
       <c r="J21" s="56"/>
       <c r="K21" s="57"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>52</v>
       </c>
@@ -4177,7 +4176,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
       <c r="B23" s="57"/>
       <c r="C23" s="55"/>
@@ -4193,7 +4192,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -4209,18 +4208,18 @@
       </c>
       <c r="I24" s="53">
         <f>I17+I20+I23</f>
-        <v>416558.2462569999</v>
+        <v>419325.43496099999</v>
       </c>
       <c r="J24" s="53">
         <f>J20+J17</f>
-        <v>7345.2944259999995</v>
+        <v>10112.48313000003</v>
       </c>
       <c r="K24" s="54">
         <f>J24/I24</f>
-        <v>1.7633294964153091E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.4116073786319584E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
       <c r="B25" s="57"/>
       <c r="C25" s="55"/>
@@ -4234,7 +4233,7 @@
       <c r="I25" s="56"/>
       <c r="J25" s="53">
         <f>J24*0.07</f>
-        <v>514.17060981999998</v>
+        <v>707.87381910000215</v>
       </c>
       <c r="K25" s="57"/>
     </row>
@@ -4259,29 +4258,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -4299,7 +4298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -4320,11 +4319,11 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -4336,7 +4335,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -4350,7 +4349,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4366,7 +4365,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -4400,7 +4399,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>0.50224745315890928</v>
       </c>
       <c r="H10" s="69">
-        <v>0.17698900000000001</v>
+        <v>0.17999000000000001</v>
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
@@ -4430,18 +4429,18 @@
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
-        <v>366413.42412899999</v>
+        <v>372626.27739</v>
       </c>
       <c r="K10" s="70">
         <f t="shared" ref="K10:K15" si="4">J10-F10</f>
-        <v>-2.0702610000153072</v>
+        <v>6210.7829999999958</v>
       </c>
       <c r="L10" s="72">
         <f t="shared" ref="L10:L16" si="5">J10/F10-1</f>
-        <v>-5.6500367252576567E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.6950110175716127E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>7.8244599421668504E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>3.873324275665424E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>1.0545210473164257E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>5.0362604859202742E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>8.492371673191057E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
@@ -4663,19 +4662,19 @@
       <c r="I16" s="49"/>
       <c r="J16" s="47">
         <f>SUM(J10:J15)</f>
-        <v>736916.32079700008</v>
+        <v>743129.17405800009</v>
       </c>
       <c r="K16" s="47">
         <f>SUM(K10:K15)</f>
-        <v>7364.5986619999503</v>
+        <v>13577.451922999961</v>
       </c>
       <c r="L16" s="50">
         <f t="shared" si="5"/>
-        <v>1.0094690257803629E-2</v>
+        <v>1.8610677640875428E-2</v>
       </c>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -4689,7 +4688,7 @@
       <c r="L17" s="50"/>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="61"/>
       <c r="C18" s="57"/>
       <c r="D18" s="55"/>
@@ -4705,18 +4704,18 @@
       </c>
       <c r="J18" s="53">
         <f>J16</f>
-        <v>736916.32079700008</v>
+        <v>743129.17405800009</v>
       </c>
       <c r="K18" s="53">
         <f>K16</f>
-        <v>7364.5986619999503</v>
+        <v>13577.451922999961</v>
       </c>
       <c r="L18" s="54">
         <f>K18/J18</f>
-        <v>9.9938058829188176E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1.8270648491510121E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -4730,11 +4729,11 @@
       <c r="J19" s="56"/>
       <c r="K19" s="53">
         <f>K18*0.07</f>
-        <v>515.52190633999658</v>
+        <v>950.42163460999734</v>
       </c>
       <c r="L19" s="57"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G23" s="74"/>
     </row>
   </sheetData>
@@ -4746,20 +4745,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AFD733-4B12-4994-A28E-C3F2CC57E1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -4791,17 +4790,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -4809,12 +4808,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4998,12 +4997,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -5491,7 +5490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -6171,7 +6170,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -6419,7 +6418,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -6787,7 +6786,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -7003,7 +7002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -7107,7 +7106,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -7331,7 +7330,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -7371,7 +7370,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -7731,157 +7730,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>
